--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 12:24 AM</t>
+    <t>Saturday, 21 June, 2025 12:26 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 12:26 AM</t>
+    <t>Saturday, 21 June, 2025 9:48 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 9:48 AM</t>
+    <t>Saturday, 21 June, 2025 10:52 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 10:52 AM</t>
+    <t>Saturday, 21 June, 2025 11:03 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 11:03 AM</t>
+    <t>Saturday, 21 June, 2025 11:05 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 11:05 AM</t>
+    <t>Saturday, 21 June, 2025 11:08 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 11:08 AM</t>
+    <t>Saturday, 21 June, 2025 11:20 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 11:20 AM</t>
+    <t>Saturday, 21 June, 2025 11:21 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 11:21 AM</t>
+    <t>Saturday, 21 June, 2025 11:52 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 11:52 AM</t>
+    <t>Saturday, 21 June, 2025 12:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 12:04 PM</t>
+    <t>Saturday, 21 June, 2025 12:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 12:05 PM</t>
+    <t>Saturday, 21 June, 2025 12:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 12:18 PM</t>
+    <t>Saturday, 21 June, 2025 12:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 12:45 PM</t>
+    <t>Saturday, 21 June, 2025 12:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 12:49 PM</t>
+    <t>Saturday, 21 June, 2025 1:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 1:47 PM</t>
+    <t>Saturday, 21 June, 2025 2:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 2:22 PM</t>
+    <t>Saturday, 21 June, 2025 2:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 2:24 PM</t>
+    <t>Saturday, 21 June, 2025 2:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 2:32 PM</t>
+    <t>Saturday, 21 June, 2025 3:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 3:04 PM</t>
+    <t>Saturday, 21 June, 2025 3:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 3:40 PM</t>
+    <t>Saturday, 21 June, 2025 3:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 3:42 PM</t>
+    <t>Saturday, 21 June, 2025 4:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 4:04 PM</t>
+    <t>Saturday, 21 June, 2025 4:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 4:40 PM</t>
+    <t>Saturday, 21 June, 2025 5:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 5:10 PM</t>
+    <t>Saturday, 21 June, 2025 5:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 5:12 PM</t>
+    <t>Saturday, 21 June, 2025 5:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 5:14 PM</t>
+    <t>Saturday, 21 June, 2025 5:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 5:15 PM</t>
+    <t>Saturday, 21 June, 2025 5:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 5:18 PM</t>
+    <t>Saturday, 21 June, 2025 5:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 5:22 PM</t>
+    <t>Saturday, 21 June, 2025 5:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 5:28 PM</t>
+    <t>Saturday, 21 June, 2025 5:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,36 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
+    <t>COENZYME Q10 30 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>COENZYME Q10 30 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -110,7 +98,19 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 9:40 AM</t>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 22 June, 2025 9:54 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -784,7 +784,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -794,11 +794,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -810,14 +810,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -834,7 +834,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -856,18 +856,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -876,20 +876,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -905,7 +905,7 @@
     </row>
     <row r="12" ht="25.5" customHeight="1">
       <c r="P12" s="13">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="Q12" s="13"/>
     </row>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -110,7 +110,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 9:54 AM</t>
+    <t>Sunday, 22 June, 2025 10:00 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -71,27 +71,48 @@
     <t>101.0000</t>
   </si>
   <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
     <t>25.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>زيت جونسون صغير</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -110,7 +131,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 10:00 AM</t>
+    <t>Sunday, 22 June, 2025 10:03 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -817,7 +838,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -827,14 +848,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>22</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>23</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -850,24 +871,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -876,66 +897,132 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>32</v>
       </c>
-      <c t="s" r="Q11" s="12">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>33</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>28</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>34</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>241</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>33</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
-        <v>34</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
-        <v>35</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>37</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>28</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>38</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>269</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>40</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>41</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>42</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -969,10 +1056,20 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,24 +44,33 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>APPLE-LITE 30 TABLETS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>COENZYME Q10 30 MG 20 CAPS.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
     <t>40.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -71,6 +80,15 @@
     <t>101.0000</t>
   </si>
   <si>
+    <t>GINGER 30 TABS.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -83,6 +101,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>L-CARNITINE PLUS 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>116.0000</t>
+  </si>
+  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -92,12 +119,24 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
+  </si>
+  <si>
+    <t>ايزيس بقدونس وكرفس</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
@@ -131,7 +170,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 10:03 AM</t>
+    <t>Sunday, 22 June, 2025 10:08 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -789,7 +828,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -798,14 +837,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -822,7 +861,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -838,7 +877,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -855,7 +894,7 @@
         <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -864,14 +903,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -881,14 +920,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -897,7 +936,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -910,18 +949,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -930,31 +969,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -963,66 +1002,231 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>36</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>12</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>24</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>37</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>17</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>38</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>39</v>
       </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>269</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>40</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c t="s" r="Q15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>41</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>17</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>38</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>42</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>45</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>46</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>38</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>47</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>49</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>50</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>38</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>51</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>531</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>53</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>54</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>55</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1066,10 +1270,35 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -170,7 +170,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 10:08 AM</t>
+    <t>Sunday, 22 June, 2025 10:25 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -59,6 +59,18 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>AUGRAM 1GM 14 TABS</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>COENZYME Q10 30 MG 20 CAPS.</t>
   </si>
   <si>
@@ -71,6 +83,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -98,9 +122,6 @@
     <t>22.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>L-CARNITINE PLUS 20 F.C. TAB</t>
   </si>
   <si>
@@ -110,6 +131,15 @@
     <t>116.0000</t>
   </si>
   <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -131,9 +161,6 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -143,9 +170,6 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>زيت جونسون صغير</t>
   </si>
   <si>
@@ -170,7 +194,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 10:25 AM</t>
+    <t>Sunday, 22 June, 2025 10:52 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -861,7 +885,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -877,7 +901,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -887,11 +911,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -903,14 +927,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -920,14 +944,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -936,14 +960,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -953,14 +977,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -969,14 +993,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -986,11 +1010,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1002,14 +1026,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1019,14 +1043,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1035,14 +1059,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1052,11 +1076,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1068,28 +1092,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1101,7 +1125,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1114,18 +1138,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1134,28 +1158,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1167,66 +1191,165 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>531</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>50</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>21</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>48</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>51</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>53</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
         <v>54</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>48</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>55</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>57</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>58</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>48</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>59</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>738</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>61</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>62</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>63</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1295,10 +1418,25 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -113,6 +113,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -140,6 +149,18 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>LUBRISTIRA 15ML EYE DROPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -155,9 +176,6 @@
     <t>ايزيس بقدونس وكرفس</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -182,6 +200,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>71:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -194,7 +221,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 10:52 AM</t>
+    <t>Sunday, 22 June, 2025 10:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1033,7 +1060,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1050,7 +1077,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1066,7 +1093,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1083,7 +1110,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1099,7 +1126,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1132,7 +1159,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1149,7 +1176,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1171,15 +1198,15 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1191,31 +1218,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1224,31 +1251,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1257,20 +1284,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1278,7 +1305,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1290,66 +1317,165 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>59</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
         <v>60</v>
       </c>
-      <c t="s" r="Q21" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>738</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>47</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>61</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
         <v>62</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c t="s" r="Q22" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>63</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>64</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>47</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>57</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>66</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>67</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>47</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>68</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>863</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>70</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>71</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>72</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1433,10 +1559,25 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -71,6 +71,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>COENZYME Q10 30 MG 20 CAPS.</t>
   </si>
   <si>
@@ -200,15 +209,27 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
     <t>71:0</t>
   </si>
   <si>
-    <t>3.0000</t>
-  </si>
-  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -221,7 +242,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 10:58 AM</t>
+    <t>Sunday, 22 June, 2025 11:04 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -928,7 +949,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -938,11 +959,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -954,14 +975,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -971,14 +992,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -987,14 +1008,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1011,7 +1032,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1027,7 +1048,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1060,7 +1081,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1093,7 +1114,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1110,7 +1131,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1126,7 +1147,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1143,7 +1164,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1159,7 +1180,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1198,15 +1219,15 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1218,20 +1239,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1242,7 +1263,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1258,7 +1279,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1268,14 +1289,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1284,28 +1305,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1317,31 +1338,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1357,24 +1378,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1383,24 +1404,24 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1423,59 +1444,158 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>69</v>
       </c>
-      <c t="s" r="Q24" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>863</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>24</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>50</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>60</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>70</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>71</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
         <v>72</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>50</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>60</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>73</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>74</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>50</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>75</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>899</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>77</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>78</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>79</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1574,10 +1694,25 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -182,6 +182,18 @@
     <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>ايزيس بقدونس وكرفس</t>
   </si>
   <si>
@@ -242,7 +254,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 11:04 AM</t>
+    <t>Sunday, 22 June, 2025 11:14 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1345,24 +1357,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1371,7 +1383,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1388,14 +1400,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1404,14 +1416,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1428,7 +1440,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1444,7 +1456,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1454,11 +1466,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1470,7 +1482,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1487,11 +1499,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1503,14 +1515,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1520,11 +1532,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1536,14 +1548,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1553,49 +1565,82 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>899</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>77</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
         <v>78</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>50</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>79</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>915.83000000000004</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>81</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>82</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>83</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1709,10 +1754,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -254,7 +254,16 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 11:14 AM</t>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 22 June, 2025 11:15 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1609,38 +1618,71 @@
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>915.83000000000004</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>81</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>24</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>50</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>82</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>83</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>923.83000000000004</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>84</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>85</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>86</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1759,10 +1801,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -182,6 +182,18 @@
     <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -263,7 +275,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 11:15 AM</t>
+    <t>Sunday, 22 June, 2025 11:16 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1383,7 +1395,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1399,24 +1411,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1425,7 +1437,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1442,14 +1454,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1458,14 +1470,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1482,7 +1494,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1498,7 +1510,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1508,11 +1520,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1524,7 +1536,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1541,11 +1553,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1557,14 +1569,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1574,11 +1586,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1590,14 +1602,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1607,11 +1619,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1630,7 +1642,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1640,49 +1652,82 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>923.83000000000004</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>84</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>85</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>24</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>50</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>86</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>975.83000000000004</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>88</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>89</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>90</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1806,10 +1851,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -275,7 +275,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 11:16 AM</t>
+    <t>Sunday, 22 June, 2025 11:29 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -113,6 +113,21 @@
     <t>101.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>GINGER 30 TABS.</t>
   </si>
   <si>
@@ -275,7 +290,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 11:29 AM</t>
+    <t>Sunday, 22 June, 2025 11:48 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1114,7 +1129,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1124,14 +1139,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1140,7 +1155,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1157,11 +1172,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1173,14 +1188,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1190,14 +1205,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1206,14 +1221,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1223,14 +1238,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1239,14 +1254,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1256,11 +1271,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1272,7 +1287,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1285,15 +1300,15 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1305,31 +1320,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1338,14 +1353,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1355,14 +1370,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1371,14 +1386,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1388,14 +1403,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1404,14 +1419,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1421,14 +1436,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1437,31 +1452,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1470,7 +1485,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1483,18 +1498,18 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1503,31 +1518,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1536,28 +1551,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1569,7 +1584,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1582,15 +1597,15 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1602,28 +1617,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1635,28 +1650,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1668,66 +1683,99 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>975.83000000000004</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>88</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
-        <v>89</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>90</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>24</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>55</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>91</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1011.47</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>93</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>94</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>95</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1856,10 +1904,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>25.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
   </si>
   <si>
     <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
@@ -1403,14 +1412,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1419,14 +1428,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1436,14 +1445,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1452,14 +1461,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1469,14 +1478,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1485,20 +1494,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1506,10 +1515,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1518,7 +1527,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1535,14 +1544,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1558,7 +1567,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1568,14 +1577,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1584,14 +1593,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1634,11 +1643,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1650,14 +1659,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1667,11 +1676,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1683,14 +1692,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1700,11 +1709,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1716,14 +1725,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1744,38 +1753,71 @@
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1011.47</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>93</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>24</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>55</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>94</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>95</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1034.47</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>96</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>97</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>98</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1909,10 +1951,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>40.0000</t>
+  </si>
+  <si>
+    <t>COLD CONTROL 20 TAB</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
   </si>
   <si>
     <t>DIMRA 20 F.C.TAB.</t>
@@ -1072,7 +1081,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1082,11 +1091,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>17</v>
@@ -1098,14 +1107,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1122,7 +1131,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1138,7 +1147,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1148,14 +1157,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1164,14 +1173,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1181,14 +1190,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1237,7 +1246,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1254,7 +1263,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1270,7 +1279,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1287,7 +1296,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1303,7 +1312,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1342,15 +1351,15 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1362,20 +1371,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1386,7 +1395,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1402,7 +1411,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1445,14 +1454,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1461,14 +1470,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1478,14 +1487,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1494,14 +1503,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1511,14 +1520,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1527,20 +1536,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1548,10 +1557,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1560,7 +1569,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1573,18 +1582,18 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1600,24 +1609,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1626,20 +1635,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1672,15 +1681,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1692,28 +1701,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1725,28 +1734,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1758,20 +1767,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1786,38 +1795,71 @@
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1034.47</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>96</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>24</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>58</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>97</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>98</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1050.47</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>99</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>100</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>101</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1956,10 +1998,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -251,15 +251,15 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>زيت جونسون صغير</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -308,7 +308,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 11:48 AM</t>
+    <t>Sunday, 22 June, 2025 11:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1626,7 +1626,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1635,14 +1635,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="34" ht="25.5" customHeight="1">
       <c r="P34" s="13">
-        <v>1050.47</v>
+        <v>1053.47</v>
       </c>
       <c r="Q34" s="13"/>
     </row>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -308,7 +308,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 11:49 AM</t>
+    <t>Sunday, 22 June, 2025 12:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -203,18 +203,45 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>NEVILOB 2.5 MG 14 TAB.</t>
   </si>
   <si>
     <t>46.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>-75.2000</t>
+  </si>
+  <si>
+    <t>0:-2</t>
   </si>
   <si>
     <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
   </si>
   <si>
+    <t>STATUKAST 4MG ORAL GRANULES 10 SACHETS</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -239,6 +266,27 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8641:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>29.50</t>
+  </si>
+  <si>
+    <t>29.5000</t>
+  </si>
+  <si>
     <t>ايزيس بقدونس وكرفس</t>
   </si>
   <si>
@@ -269,9 +317,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>2.0000</t>
   </si>
   <si>
@@ -308,7 +353,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 12:25 PM</t>
+    <t>Sunday, 22 June, 2025 12:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1444,7 +1489,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1461,7 +1506,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1487,14 +1532,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1503,14 +1548,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1520,14 +1565,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1536,14 +1581,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1553,14 +1598,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1569,7 +1614,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1582,15 +1627,15 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1602,20 +1647,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1626,7 +1671,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1635,20 +1680,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1659,7 +1704,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1675,24 +1720,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1701,28 +1746,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1734,14 +1779,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1751,11 +1796,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1767,14 +1812,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1784,14 +1829,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1800,14 +1845,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1817,49 +1862,214 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1053.47</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>99</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>100</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>101</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>24</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>58</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>87</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>103</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>24</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>58</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>95</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>105</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>106</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>58</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>95</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>107</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>108</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>58</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>109</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>111</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>24</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>58</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>112</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1084.77</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>114</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>115</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>116</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2003,10 +2213,35 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -353,7 +353,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 12:31 PM</t>
+    <t>Sunday, 22 June, 2025 12:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -80,6 +80,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>COENZYME Q10 30 MG 20 CAPS.</t>
   </si>
   <si>
@@ -221,9 +233,6 @@
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>752.00</t>
   </si>
   <si>
@@ -317,21 +326,21 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>71:0</t>
+  </si>
+  <si>
     <t>3.0000</t>
   </si>
   <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>71:0</t>
-  </si>
-  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -353,7 +362,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 12:34 PM</t>
+    <t>Sunday, 22 June, 2025 12:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1110,7 +1119,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1126,7 +1135,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1136,14 +1145,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1152,14 +1161,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1192,7 +1201,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1202,14 +1211,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1218,14 +1227,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1242,7 +1251,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1251,14 +1260,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1275,7 +1284,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1284,14 +1293,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1301,11 +1310,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1317,14 +1326,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1334,14 +1343,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1350,14 +1359,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1367,14 +1376,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1383,14 +1392,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1400,11 +1409,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1416,7 +1425,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1429,7 +1438,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1456,24 +1465,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1482,14 +1491,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1499,14 +1508,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1515,14 +1524,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1532,14 +1541,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1548,14 +1557,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1565,14 +1574,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1581,14 +1590,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1598,14 +1607,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1614,14 +1623,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1631,11 +1640,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1647,14 +1656,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1664,14 +1673,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1680,14 +1689,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1697,14 +1706,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1713,14 +1722,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1730,14 +1739,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1746,14 +1755,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1770,7 +1779,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1786,13 +1795,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1800,7 +1809,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1812,31 +1821,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1845,31 +1854,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>100</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1885,21 +1894,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1911,31 +1920,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1944,31 +1953,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1990,15 +1999,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2010,20 +2019,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2038,38 +2047,71 @@
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1084.77</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>114</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>28</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>62</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>115</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>116</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1109.77</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>117</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>118</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>119</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2238,10 +2280,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -362,7 +362,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 12:35 PM</t>
+    <t>Sunday, 22 June, 2025 12:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>APPLE-LITE 30 TABLETS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>21.00</t>
   </si>
   <si>
@@ -95,9 +107,6 @@
     <t>COENZYME Q10 30 MG 20 CAPS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -107,9 +116,6 @@
     <t>COLD CONTROL 20 TAB</t>
   </si>
   <si>
-    <t>32.00</t>
-  </si>
-  <si>
     <t>16.0000</t>
   </si>
   <si>
@@ -134,6 +140,15 @@
     <t>101.0000</t>
   </si>
   <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -155,9 +170,6 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
@@ -362,7 +374,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 12:38 PM</t>
+    <t>Sunday, 22 June, 2025 12:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1020,7 +1032,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1029,14 +1041,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1053,7 +1065,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1069,7 +1081,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1079,14 +1091,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1095,14 +1107,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1119,7 +1131,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1152,7 +1164,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1168,7 +1180,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1185,7 +1197,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1201,7 +1213,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1211,14 +1223,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1227,14 +1239,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1244,14 +1256,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1260,14 +1272,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1277,14 +1289,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1293,14 +1305,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1310,14 +1322,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1326,14 +1338,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1343,14 +1355,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1359,7 +1371,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1376,14 +1388,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1392,14 +1404,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1409,14 +1421,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1425,14 +1437,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1442,14 +1454,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1458,7 +1470,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1471,18 +1483,18 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1491,14 +1503,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1508,14 +1520,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1524,31 +1536,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1557,14 +1569,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1574,14 +1586,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1590,14 +1602,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1607,14 +1619,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1623,14 +1635,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1640,14 +1652,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1656,7 +1668,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1673,14 +1685,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1689,14 +1701,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1706,14 +1718,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1722,14 +1734,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1739,14 +1751,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1755,14 +1767,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1772,14 +1784,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1788,14 +1800,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1805,14 +1817,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1821,31 +1833,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1854,31 +1866,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1887,31 +1899,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1920,31 +1932,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1953,31 +1965,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1986,31 +1998,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2026,24 +2038,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2052,66 +2064,132 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>114</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>115</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>66</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>116</v>
       </c>
-      <c t="s" r="Q39" s="12">
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>118</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1109.77</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>117</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>118</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>66</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>119</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1186.77</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>121</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>122</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>123</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2285,10 +2363,20 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -374,7 +374,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 12:50 PM</t>
+    <t>Sunday, 22 June, 2025 12:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -83,6 +83,18 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
@@ -99,9 +111,6 @@
   </si>
   <si>
     <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
   </si>
   <si>
     <t>COENZYME Q10 30 MG 20 CAPS.</t>
@@ -1114,7 +1123,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1124,11 +1133,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1140,14 +1149,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1164,7 +1173,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1180,7 +1189,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1190,14 +1199,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1213,7 +1222,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1223,14 +1232,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1239,14 +1248,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1256,11 +1265,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1272,14 +1281,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1296,7 +1305,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1312,7 +1321,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1329,7 +1338,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1345,7 +1354,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1355,14 +1364,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1371,14 +1380,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1388,14 +1397,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1404,7 +1413,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1421,11 +1430,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1444,7 +1453,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1461,7 +1470,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1477,7 +1486,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1494,7 +1503,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1510,7 +1519,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1549,15 +1558,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1569,20 +1578,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1593,7 +1602,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1609,7 +1618,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1626,7 +1635,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1642,7 +1651,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1656,10 +1665,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1668,14 +1677,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1685,14 +1694,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1701,14 +1710,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1718,14 +1727,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1734,14 +1743,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1751,11 +1760,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1767,14 +1776,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1784,14 +1793,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1800,14 +1809,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1817,14 +1826,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1833,14 +1842,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1850,14 +1859,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1866,14 +1875,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1890,7 +1899,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1906,13 +1915,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1920,7 +1929,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1932,7 +1941,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1945,18 +1954,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1965,31 +1974,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>107</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2005,24 +2014,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2031,7 +2040,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2044,18 +2053,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>37</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2064,31 +2073,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2110,15 +2119,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2130,20 +2139,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2158,38 +2167,71 @@
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1186.77</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>121</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>12</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>69</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>122</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
         <v>123</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1204.77</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>124</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>125</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>126</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2373,10 +2415,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -323,6 +323,9 @@
     <t>35.00</t>
   </si>
   <si>
+    <t>بيرسول حشرات طائره</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -383,7 +386,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 12:51 PM</t>
+    <t>Sunday, 22 June, 2025 12:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1981,7 +1984,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1991,14 +1994,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2007,14 +2010,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2024,14 +2027,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2040,14 +2043,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2057,14 +2060,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2073,7 +2076,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2090,14 +2093,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>40</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2113,7 +2116,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2123,14 +2126,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2139,14 +2142,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2156,11 +2159,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2172,14 +2175,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2189,49 +2192,82 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>122</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>12</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>69</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>123</v>
       </c>
-      <c t="s" r="Q42" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1204.77</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>124</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1254.77</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
         <v>125</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
         <v>126</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>127</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2420,10 +2456,15 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -179,6 +179,15 @@
     <t>45.00</t>
   </si>
   <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
@@ -386,7 +395,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 12:55 PM</t>
+    <t>Sunday, 22 June, 2025 12:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1456,7 +1465,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1489,7 +1498,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1506,7 +1515,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1522,7 +1531,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1539,7 +1548,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1555,7 +1564,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1594,15 +1603,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1614,20 +1623,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1638,7 +1647,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1654,7 +1663,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1671,7 +1680,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1687,7 +1696,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1701,10 +1710,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1713,14 +1722,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1730,14 +1739,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1746,14 +1755,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1763,14 +1772,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1779,14 +1788,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1796,11 +1805,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1812,14 +1821,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1829,14 +1838,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1845,14 +1854,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1862,14 +1871,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1878,14 +1887,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1895,14 +1904,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1911,14 +1920,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1935,7 +1944,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1951,13 +1960,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1965,7 +1974,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1977,28 +1986,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2010,31 +2019,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2043,31 +2052,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>111</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2083,24 +2092,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2109,7 +2118,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2122,18 +2131,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>40</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2142,31 +2151,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2188,15 +2197,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2208,20 +2217,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2236,38 +2245,71 @@
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1254.77</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>125</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>12</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>72</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
         <v>126</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>127</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1494.77</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>128</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>129</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>130</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2461,10 +2503,15 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>16.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -332,9 +341,30 @@
     <t>35.00</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>بيرسول حشرات طائره</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -359,12 +389,15 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
@@ -386,16 +419,28 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
     <t>8.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>Sunday, 22 June, 2025 12:57 PM</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 22 June, 2025 1:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1310,11 +1355,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1326,14 +1371,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1350,7 +1395,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1366,7 +1411,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1383,7 +1428,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1399,7 +1444,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1409,14 +1454,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1425,14 +1470,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1442,14 +1487,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1458,14 +1503,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1475,11 +1520,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1498,7 +1543,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1531,7 +1576,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1548,7 +1593,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1564,7 +1609,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1581,7 +1626,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1597,7 +1642,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1636,15 +1681,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1656,20 +1701,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1680,7 +1725,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1696,7 +1741,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1713,7 +1758,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1729,7 +1774,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1743,10 +1788,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1755,14 +1800,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1772,14 +1817,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1788,14 +1833,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1805,14 +1850,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1821,14 +1866,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1838,11 +1883,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1854,14 +1899,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1871,14 +1916,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1887,14 +1932,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1904,14 +1949,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1920,14 +1965,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1937,14 +1982,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1953,14 +1998,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1977,7 +2022,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1993,13 +2038,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2007,7 +2052,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2019,28 +2064,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2052,31 +2097,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2085,28 +2130,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2125,24 +2170,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2151,7 +2196,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2164,18 +2209,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>40</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2184,28 +2229,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2217,31 +2262,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2250,7 +2295,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2263,53 +2308,218 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1494.77</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>128</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>129</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
         <v>130</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>75</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>119</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>132</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>133</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>75</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>134</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>136</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>12</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>75</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>112</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>137</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>12</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>75</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>138</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>139</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>140</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>75</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>141</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1582.6500000000001</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>143</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>144</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>145</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2508,10 +2718,35 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -194,7 +194,7 @@
     <t>240.00</t>
   </si>
   <si>
-    <t>240.0000</t>
+    <t>480.0000</t>
   </si>
   <si>
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
@@ -440,7 +440,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 1:02 PM</t>
+    <t>Sunday, 22 June, 2025 1:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1543,7 +1543,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1560,7 +1560,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2489,7 +2489,7 @@
     </row>
     <row r="50" ht="24.75" customHeight="1">
       <c r="P50" s="13">
-        <v>1582.6500000000001</v>
+        <v>1822.6500000000001</v>
       </c>
       <c r="Q50" s="13"/>
     </row>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -263,6 +263,12 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>NACTALIA 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>NEVILOB 2.5 MG 14 TAB.</t>
   </si>
   <si>
@@ -440,7 +446,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 1:15 PM</t>
+    <t>Sunday, 22 June, 2025 1:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1807,7 +1813,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1817,14 +1823,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1840,7 +1846,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1854,10 +1860,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1866,14 +1872,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1883,14 +1889,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1899,14 +1905,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1916,11 +1922,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1939,7 +1945,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1949,14 +1955,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1965,14 +1971,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1982,14 +1988,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1998,14 +2004,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2015,14 +2021,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2031,14 +2037,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2048,14 +2054,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2064,28 +2070,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2104,7 +2110,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2114,11 +2120,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2130,14 +2136,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2147,11 +2153,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2163,7 +2169,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2180,11 +2186,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2196,14 +2202,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2213,14 +2219,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2229,14 +2235,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2246,14 +2252,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2262,14 +2268,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2279,14 +2285,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2312,14 +2318,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>43</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2335,7 +2341,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2345,14 +2351,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2361,14 +2367,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2378,11 +2384,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2394,14 +2400,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2411,11 +2417,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2427,7 +2433,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2444,11 +2450,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2467,7 +2473,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2477,49 +2483,82 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>141</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
         <v>142</v>
       </c>
-      <c t="s" r="Q49" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1822.6500000000001</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>75</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>143</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>144</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2062.6500000000001</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
         <v>145</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>146</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>147</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2743,10 +2782,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -446,7 +446,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 1:17 PM</t>
+    <t>Sunday, 22 June, 2025 1:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -206,6 +206,18 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>91.50</t>
+  </si>
+  <si>
+    <t>30.1950</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -377,15 +389,12 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>زيت جونسون صغير</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>زيت جونسون صغير</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -446,7 +455,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 1:26 PM</t>
+    <t>Sunday, 22 June, 2025 1:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1615,7 +1624,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1625,11 +1634,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1641,14 +1650,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1658,14 +1667,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1674,14 +1683,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1691,11 +1700,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1707,7 +1716,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1720,7 +1729,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1747,24 +1756,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1773,14 +1782,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1790,14 +1799,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1806,7 +1815,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1823,11 +1832,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1839,14 +1848,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1856,14 +1865,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1872,14 +1881,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1889,14 +1898,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1912,7 +1921,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1922,14 +1931,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1938,14 +1947,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1955,11 +1964,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1971,14 +1980,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1988,14 +1997,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2028,7 +2037,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2061,7 +2070,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2077,7 +2086,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2087,14 +2096,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2103,28 +2112,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2136,28 +2145,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2176,21 +2185,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2202,7 +2211,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2215,15 +2224,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2235,31 +2244,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2275,13 +2284,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2289,10 +2298,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2301,31 +2310,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2334,7 +2343,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2347,18 +2356,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2367,31 +2376,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2413,15 +2422,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2433,28 +2442,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2466,7 +2475,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2479,15 +2488,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2499,20 +2508,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2520,45 +2529,78 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>144</v>
       </c>
-      <c t="s" r="Q50" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2062.6500000000001</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
         <v>145</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>79</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
         <v>146</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
         <v>147</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2098.8449999999998</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>148</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>149</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>150</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2787,10 +2829,15 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -302,6 +302,12 @@
     <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>STATUKAST 4MG ORAL GRANULES 10 SACHETS</t>
   </si>
   <si>
@@ -311,9 +317,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -455,7 +458,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 1:31 PM</t>
+    <t>Sunday, 22 June, 2025 1:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1987,7 +1990,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1997,11 +2000,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2020,7 +2023,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2030,14 +2033,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2046,14 +2049,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2063,14 +2066,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2079,14 +2082,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2096,14 +2099,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2112,14 +2115,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2129,14 +2132,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2145,28 +2148,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2178,14 +2181,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2195,11 +2198,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2211,14 +2214,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2228,11 +2231,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2261,11 +2264,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2277,14 +2280,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2294,14 +2297,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2310,14 +2313,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2327,14 +2330,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2343,14 +2346,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2360,14 +2363,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2376,7 +2379,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2393,14 +2396,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>43</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2409,14 +2412,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2426,14 +2429,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2442,14 +2445,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2459,11 +2462,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2475,14 +2478,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2492,11 +2495,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2525,11 +2528,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2541,14 +2544,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2558,49 +2561,82 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>145</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>146</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>79</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
         <v>147</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2098.8449999999998</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>148</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2119.8449999999998</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
         <v>149</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
         <v>150</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>151</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2834,10 +2870,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -314,6 +314,12 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -458,7 +464,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 1:32 PM</t>
+    <t>Sunday, 22 June, 2025 3:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2056,7 +2062,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2066,14 +2072,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2082,14 +2088,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2099,14 +2105,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2115,14 +2121,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2132,14 +2138,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2148,14 +2154,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2165,14 +2171,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2181,28 +2187,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2221,7 +2227,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2231,11 +2237,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2247,14 +2253,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2264,11 +2270,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2280,7 +2286,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2297,11 +2303,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2313,14 +2319,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2330,14 +2336,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2353,7 +2359,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2363,14 +2369,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2379,14 +2385,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2396,14 +2402,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2429,14 +2435,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>43</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2452,7 +2458,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2462,14 +2468,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2478,14 +2484,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2495,11 +2501,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2511,14 +2517,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2528,11 +2534,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2544,7 +2550,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2561,11 +2567,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2584,7 +2590,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2594,49 +2600,82 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>147</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
         <v>148</v>
       </c>
-      <c t="s" r="Q52" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2119.8449999999998</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>79</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
         <v>149</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>150</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2165.8449999999998</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
         <v>151</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>152</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>153</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2875,10 +2914,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -287,6 +287,18 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -305,9 +317,6 @@
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>STATUKAST 4MG ORAL GRANULES 10 SACHETS</t>
   </si>
   <si>
@@ -389,9 +398,6 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -464,7 +470,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 3:00 PM</t>
+    <t>Sunday, 22 June, 2025 3:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1930,7 +1936,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1940,7 +1946,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -1963,7 +1969,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1973,14 +1979,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1989,14 +1995,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2006,11 +2012,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2022,14 +2028,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2039,11 +2045,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2055,14 +2061,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2072,11 +2078,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2088,14 +2094,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2105,14 +2111,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2128,7 +2134,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2138,14 +2144,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2154,14 +2160,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2171,14 +2177,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2187,14 +2193,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2211,7 +2217,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2227,13 +2233,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2241,7 +2247,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2253,14 +2259,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2274,7 +2280,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2286,14 +2292,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2303,11 +2309,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2319,7 +2325,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2336,11 +2342,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2359,7 +2365,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2373,10 +2379,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2392,7 +2398,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2402,14 +2408,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2418,14 +2424,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2435,14 +2441,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2468,14 +2474,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2491,7 +2497,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2501,14 +2507,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2517,14 +2523,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2534,11 +2540,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2550,14 +2556,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2567,11 +2573,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2583,7 +2589,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2600,11 +2606,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2623,7 +2629,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2633,49 +2639,82 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>149</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
         <v>150</v>
       </c>
-      <c t="s" r="Q53" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2165.8449999999998</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>79</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
         <v>151</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
         <v>152</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2185.8449999999998</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
         <v>153</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>154</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>155</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2919,10 +2958,15 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -470,7 +470,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 3:19 PM</t>
+    <t>Sunday, 22 June, 2025 4:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -188,6 +188,18 @@
     <t>45.00</t>
   </si>
   <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -209,9 +221,6 @@
     <t>INCONT L.A. 4MG 30 TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>91.50</t>
   </si>
   <si>
@@ -329,6 +338,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -470,7 +488,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 4:40 PM</t>
+    <t>Sunday, 22 June, 2025 4:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1573,7 +1591,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1583,14 +1601,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1599,7 +1617,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1616,14 +1634,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1632,14 +1650,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1656,7 +1674,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1672,7 +1690,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1705,7 +1723,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1722,7 +1740,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1738,7 +1756,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1777,15 +1795,15 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1797,20 +1815,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1821,7 +1839,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1837,7 +1855,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1854,7 +1872,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1880,11 +1898,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1896,14 +1914,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1913,14 +1931,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1929,14 +1947,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1946,14 +1964,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1962,14 +1980,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1979,14 +1997,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>98</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>99</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1995,14 +2013,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2012,14 +2030,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2028,14 +2046,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2045,11 +2063,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2061,14 +2079,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2078,11 +2096,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2094,14 +2112,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2111,11 +2129,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2127,14 +2145,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2144,14 +2162,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2167,7 +2185,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2177,11 +2195,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2193,14 +2211,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2210,11 +2228,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>43</v>
@@ -2226,14 +2244,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2243,14 +2261,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2259,20 +2277,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2280,10 +2298,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2292,20 +2310,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2332,21 +2350,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2358,28 +2376,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2391,31 +2409,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2424,28 +2442,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2470,18 +2488,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2497,24 +2515,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2523,31 +2541,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2556,31 +2574,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2589,28 +2607,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2622,28 +2640,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2655,66 +2673,132 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2185.8449999999998</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>153</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>12</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>82</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>154</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>155</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>156</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>82</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>157</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2303.2849999999999</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>159</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>160</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>161</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2963,10 +3047,20 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -488,7 +500,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 4:44 PM</t>
+    <t>Sunday, 22 June, 2025 5:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1308,7 +1320,7 @@
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1320,14 +1332,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1337,14 +1349,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1353,14 +1365,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1370,14 +1382,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1386,14 +1398,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1403,11 +1415,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1419,14 +1431,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1436,7 +1448,7 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1459,7 +1471,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1469,14 +1481,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1485,14 +1497,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1502,14 +1514,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1518,14 +1530,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1542,7 +1554,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1551,14 +1563,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1572,10 +1584,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1584,14 +1596,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1601,14 +1613,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1624,7 +1636,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1634,14 +1646,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1650,7 +1662,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1667,14 +1679,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1683,14 +1695,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1700,14 +1712,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1716,14 +1728,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1733,11 +1745,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1749,14 +1761,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1766,14 +1778,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1782,14 +1794,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1799,11 +1811,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1815,7 +1827,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1828,7 +1840,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1855,24 +1867,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1881,14 +1893,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1898,14 +1910,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1914,7 +1926,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1931,11 +1943,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1947,14 +1959,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1964,14 +1976,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1980,14 +1992,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1997,14 +2009,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2020,7 +2032,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2030,7 +2042,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2053,7 +2065,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2063,14 +2075,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2079,14 +2091,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2096,11 +2108,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2112,14 +2124,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2129,11 +2141,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2145,14 +2157,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2162,11 +2174,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2178,14 +2190,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2195,14 +2207,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2211,14 +2223,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2228,14 +2240,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2244,14 +2256,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2268,7 +2280,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2301,7 +2313,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2317,7 +2329,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2327,14 +2339,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2343,28 +2355,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2376,28 +2388,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2416,21 +2428,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2442,7 +2454,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2455,15 +2467,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2475,31 +2487,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2508,31 +2520,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2548,24 +2560,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2574,7 +2586,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2587,18 +2599,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2607,31 +2619,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2640,24 +2652,24 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2680,21 +2692,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2706,7 +2718,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2719,15 +2731,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2739,66 +2751,99 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2303.2849999999999</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>159</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
         <v>160</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>86</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
         <v>161</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2311.2049999999999</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>163</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>164</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>165</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3057,10 +3102,15 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -161,6 +161,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -320,6 +332,15 @@
     <t>0:5</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -500,7 +521,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 5:03 PM</t>
+    <t>Sunday, 22 June, 2025 5:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1504,7 +1525,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1514,11 +1535,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1530,14 +1551,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1547,14 +1568,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1563,14 +1584,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1587,7 +1608,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1596,14 +1617,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1617,10 +1638,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1629,14 +1650,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1646,14 +1667,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1669,7 +1690,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1679,14 +1700,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1695,7 +1716,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1712,14 +1733,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1728,14 +1749,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1745,14 +1766,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1761,14 +1782,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1778,11 +1799,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1794,14 +1815,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1811,14 +1832,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1827,14 +1848,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1844,11 +1865,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1860,7 +1881,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1873,7 +1894,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1900,24 +1921,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1926,14 +1947,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1943,14 +1964,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1959,7 +1980,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1976,11 +1997,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1992,14 +2013,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2009,14 +2030,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2025,14 +2046,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2042,14 +2063,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2065,7 +2086,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2075,7 +2096,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2098,13 +2119,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2112,10 +2133,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2124,14 +2145,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2141,14 +2162,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2157,14 +2178,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2174,11 +2195,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2190,14 +2211,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2207,11 +2228,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2223,14 +2244,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2240,14 +2261,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2256,14 +2277,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2273,14 +2294,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2289,14 +2310,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2329,7 +2350,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2339,11 +2360,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>47</v>
@@ -2355,14 +2376,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2379,7 +2400,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2395,24 +2416,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2421,28 +2442,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2454,28 +2475,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2487,28 +2508,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2520,31 +2541,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2553,28 +2574,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2586,7 +2607,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2599,18 +2620,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2619,31 +2640,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2652,31 +2673,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2685,31 +2706,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2725,21 +2746,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2751,28 +2772,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2784,66 +2805,132 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2311.2049999999999</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>163</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>164</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>12</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>90</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
         <v>165</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>166</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>167</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>90</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>168</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2386.2049999999999</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>170</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>171</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>172</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3107,10 +3194,20 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -116,6 +116,12 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -356,6 +362,18 @@
     <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
   </si>
   <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -515,13 +533,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>Sunday, 22 June, 2025 5:07 PM</t>
+    <t>Sunday, 22 June, 2025 5:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1370,14 +1382,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1386,14 +1398,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1407,10 +1419,10 @@
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1419,14 +1431,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1436,14 +1448,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1459,7 +1471,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1469,11 +1481,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1485,14 +1497,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1502,11 +1514,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1518,14 +1530,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1535,14 +1547,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1551,14 +1563,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1568,11 +1580,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1584,14 +1596,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1601,14 +1613,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1617,14 +1629,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1634,14 +1646,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1650,14 +1662,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1667,14 +1679,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1690,7 +1702,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1700,14 +1712,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1716,14 +1728,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1733,14 +1745,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1749,7 +1761,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1766,14 +1778,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1782,14 +1794,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1799,14 +1811,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1815,14 +1827,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1832,11 +1844,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1848,14 +1860,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1865,14 +1877,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1881,14 +1893,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1898,11 +1910,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1914,7 +1926,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1927,15 +1939,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1947,31 +1959,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1980,14 +1992,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1997,14 +2009,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2013,7 +2025,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2030,7 +2042,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2053,7 +2065,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2063,14 +2075,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2086,7 +2098,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2096,14 +2108,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>106</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2112,31 +2124,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2145,31 +2157,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2178,14 +2190,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2195,14 +2207,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2211,14 +2223,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2228,11 +2240,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2244,14 +2256,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2261,11 +2273,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2277,14 +2289,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2294,11 +2306,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2310,14 +2322,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2327,14 +2339,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2343,14 +2355,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2360,14 +2372,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2383,7 +2395,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2393,11 +2405,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2409,14 +2421,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2426,14 +2438,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2442,14 +2454,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2459,14 +2471,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2475,20 +2487,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2496,10 +2508,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>49</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2508,20 +2520,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2548,21 +2560,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2574,28 +2586,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2607,31 +2619,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2640,28 +2652,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2686,18 +2698,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>104</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2713,24 +2725,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2739,31 +2751,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2772,31 +2784,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2805,28 +2817,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2838,28 +2850,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2871,66 +2883,132 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2386.2049999999999</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>170</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>12</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>92</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>171</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>172</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>173</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>92</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>119</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2441.2049999999999</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>174</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>175</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>176</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3204,10 +3282,20 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -374,6 +374,21 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>-25.7400</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -407,6 +422,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>VITATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>-75.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -440,6 +464,12 @@
     <t>29.5000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>ايزيس بقدونس وكرفس</t>
   </si>
   <si>
@@ -476,9 +506,6 @@
     <t>زيت جونسون صغير</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -533,7 +560,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 5:29 PM</t>
+    <t>Sunday, 22 June, 2025 5:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2296,7 +2323,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2306,14 +2333,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2322,14 +2349,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2339,11 +2366,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2355,14 +2382,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2372,11 +2399,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2388,14 +2415,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2405,14 +2432,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2421,14 +2448,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2438,14 +2465,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2454,14 +2481,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2471,14 +2498,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2487,14 +2514,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2511,7 +2538,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>49</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2527,7 +2554,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2537,14 +2564,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2553,31 +2580,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2586,28 +2613,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2619,31 +2646,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2652,14 +2679,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2669,11 +2696,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2685,14 +2712,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2702,14 +2729,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2718,14 +2745,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2735,11 +2762,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2751,14 +2778,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2768,14 +2795,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2784,7 +2811,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2801,14 +2828,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2817,14 +2844,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2834,11 +2861,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2850,14 +2877,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2867,14 +2894,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2900,14 +2927,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2916,14 +2943,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2933,11 +2960,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2949,14 +2976,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2966,49 +2993,148 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>178</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>12</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>92</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>157</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>179</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>12</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>92</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>180</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>181</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>182</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>92</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>119</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>120</v>
       </c>
-      <c t="s" r="Q61" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2441.2049999999999</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>174</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>175</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>176</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2403.8249999999998</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>183</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>184</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>185</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3292,10 +3418,25 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -83,6 +83,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>BAMBEDIL 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -146,6 +155,18 @@
     <t>16.0000</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -221,9 +242,6 @@
     <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>168.00</t>
   </si>
   <si>
@@ -560,7 +578,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 5:32 PM</t>
+    <t>Sunday, 22 June, 2025 5:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1300,7 +1318,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1310,11 +1328,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1326,14 +1344,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1366,7 +1384,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1376,14 +1394,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1392,14 +1410,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1409,14 +1427,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1425,14 +1443,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1442,14 +1460,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1465,7 +1483,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1475,14 +1493,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1498,7 +1516,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1508,14 +1526,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1524,14 +1542,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1541,7 +1559,7 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -1581,7 +1599,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1607,14 +1625,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1623,14 +1641,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1647,7 +1665,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1663,7 +1681,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1673,14 +1691,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1689,14 +1707,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1713,7 +1731,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1722,14 +1740,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1739,14 +1757,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1779,7 +1797,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1788,7 +1806,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1805,14 +1823,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1828,7 +1846,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1845,7 +1863,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1861,7 +1879,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1878,7 +1896,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1894,7 +1912,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1911,7 +1929,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1927,7 +1945,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1944,7 +1962,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1977,7 +1995,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1993,21 +2011,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2019,14 +2037,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2036,14 +2054,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2052,20 +2070,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2092,7 +2110,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2102,14 +2120,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2118,14 +2136,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2135,14 +2153,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2151,14 +2169,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2168,14 +2186,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2191,21 +2209,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2217,14 +2235,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2234,14 +2252,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>114</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>115</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2250,31 +2268,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2283,14 +2301,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2307,7 +2325,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2316,14 +2334,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2333,14 +2351,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2349,14 +2367,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2366,11 +2384,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2389,7 +2407,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2399,14 +2417,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2415,14 +2433,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2432,11 +2450,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2448,14 +2466,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2465,14 +2483,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2481,14 +2499,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2498,14 +2516,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2521,7 +2539,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2538,7 +2556,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2554,7 +2572,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2564,14 +2582,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2580,14 +2598,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2597,14 +2615,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>49</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2613,14 +2631,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2630,14 +2648,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2646,14 +2664,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2663,14 +2681,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2679,28 +2697,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2712,31 +2730,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2752,21 +2770,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2778,28 +2796,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2811,31 +2829,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2844,28 +2862,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2877,7 +2895,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2890,18 +2908,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>106</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2910,31 +2928,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2943,31 +2961,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2976,31 +2994,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3009,28 +3027,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3042,28 +3060,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3075,66 +3093,132 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2403.8249999999998</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>183</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>184</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>185</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>12</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>98</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>186</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>187</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>188</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>98</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>125</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>2589.8249999999998</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>189</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>190</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>191</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3433,10 +3517,20 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -578,7 +578,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 5:33 PM</t>
+    <t>Sunday, 22 June, 2025 5:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>480.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 625MG 16 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>71.5000</t>
+  </si>
+  <si>
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
@@ -578,7 +587,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 5:34 PM</t>
+    <t>Sunday, 22 June, 2025 5:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1912,7 +1921,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1929,7 +1938,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1945,7 +1954,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1962,7 +1971,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1978,7 +1987,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2011,7 +2020,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2028,7 +2037,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2044,7 +2053,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2083,15 +2092,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2103,20 +2112,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2127,7 +2136,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2143,7 +2152,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2160,7 +2169,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2186,11 +2195,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2202,14 +2211,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2219,14 +2228,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2235,14 +2244,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2252,14 +2261,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>114</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2268,31 +2277,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>117</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2308,24 +2317,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2334,14 +2343,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2351,14 +2360,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2367,14 +2376,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2384,11 +2393,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2400,14 +2409,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2417,14 +2426,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2433,14 +2442,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2450,14 +2459,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2466,14 +2475,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2483,11 +2492,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2499,14 +2508,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2516,11 +2525,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2532,14 +2541,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2549,14 +2558,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2572,7 +2581,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2589,7 +2598,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2605,7 +2614,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2622,7 +2631,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>131</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2638,7 +2647,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2648,14 +2657,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2664,14 +2673,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2681,14 +2690,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2697,14 +2706,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2721,7 +2730,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2737,7 +2746,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2747,14 +2756,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2763,31 +2772,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2796,20 +2805,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2817,7 +2826,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2829,28 +2838,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2862,7 +2871,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2875,15 +2884,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2895,31 +2904,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2928,31 +2937,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2968,24 +2977,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2994,7 +3003,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3007,18 +3016,18 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>56</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3027,31 +3036,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3073,15 +3082,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3093,28 +3102,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3126,7 +3135,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3139,15 +3148,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3159,66 +3168,99 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>2589.8249999999998</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>189</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>190</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
         <v>191</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>101</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>128</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>2661.3249999999998</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>192</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>193</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>194</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3527,10 +3569,15 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -302,6 +302,12 @@
     <t>116.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>LOLAWEST 3GM 6 SACHETS</t>
   </si>
   <si>
@@ -374,6 +380,12 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -404,135 +416,138 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>STATUKAST 4MG ORAL GRANULES 10 SACHETS</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>VITATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>-75.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8641:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>29.50</t>
+  </si>
+  <si>
+    <t>29.5000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>ايزيس بقدونس وكرفس</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>بيرسول حشرات طائره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>-25.7400</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>STATUKAST 4MG ORAL GRANULES 10 SACHETS</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>VITATRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>-75.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8641:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>29.50</t>
-  </si>
-  <si>
-    <t>29.5000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>ايزيس بقدونس وكرفس</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>بيرسول حشرات طائره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>زيت جونسون صغير</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -542,52 +557,55 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>71:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
     <t>8.0000</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>71:0</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>قطن 50جم</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 5:35 PM</t>
+    <t>Sunday, 22 June, 2025 5:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2086,7 +2104,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2096,14 +2114,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2112,7 +2130,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2125,15 +2143,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2145,31 +2163,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2178,14 +2196,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2195,14 +2213,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2211,7 +2229,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2228,7 +2246,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2251,7 +2269,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2261,14 +2279,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2284,7 +2302,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2294,14 +2312,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>117</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2310,31 +2328,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2343,31 +2361,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2376,14 +2394,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2393,11 +2411,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2409,14 +2427,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2426,14 +2444,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2442,14 +2460,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2459,14 +2477,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2475,14 +2493,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2492,11 +2510,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2508,14 +2526,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2525,14 +2543,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2548,7 +2566,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2558,11 +2576,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2574,14 +2592,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2591,14 +2609,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2607,14 +2625,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2624,14 +2642,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2640,14 +2658,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2657,14 +2675,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2673,14 +2691,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2690,14 +2708,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2706,14 +2724,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2723,14 +2741,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>56</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2739,14 +2757,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2756,14 +2774,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2772,14 +2790,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2789,14 +2807,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2805,28 +2823,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2845,24 +2863,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2871,28 +2889,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2904,20 +2922,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2925,7 +2943,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2937,31 +2955,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2977,13 +2995,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -2991,7 +3009,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3003,7 +3021,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3016,18 +3034,18 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>115</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3036,31 +3054,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3069,31 +3087,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3109,24 +3127,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3135,28 +3153,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3175,21 +3193,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3201,66 +3219,132 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>2661.3249999999998</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>192</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>193</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>12</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>103</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
         <v>194</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>196</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>197</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>103</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>132</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>2754.9050000000002</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>198</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>199</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>200</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3574,10 +3658,20 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -209,6 +209,24 @@
     <t>101.0000</t>
   </si>
   <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
     <t>E-YEAST 20 CAPS</t>
   </si>
   <si>
@@ -233,6 +251,18 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
     <t>GINGER 30 TABS.</t>
   </si>
   <si>
@@ -419,9 +449,6 @@
     <t>2:2</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>0.0000</t>
   </si>
   <si>
@@ -605,7 +632,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 5:39 PM</t>
+    <t>Sunday, 22 June, 2025 5:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1807,7 +1834,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1817,14 +1844,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1833,14 +1860,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1850,14 +1877,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1866,14 +1893,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1890,7 +1917,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1899,14 +1926,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1916,14 +1943,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1932,14 +1959,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1949,14 +1976,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1965,14 +1992,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1982,14 +2009,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1998,14 +2025,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2015,14 +2042,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2031,14 +2058,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2048,11 +2075,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2064,7 +2091,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2081,11 +2108,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2097,14 +2124,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2114,11 +2141,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2130,7 +2157,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2147,14 +2174,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2163,28 +2190,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2196,14 +2223,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2213,7 +2240,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2236,7 +2263,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2269,21 +2296,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2295,14 +2322,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2312,11 +2339,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2328,14 +2355,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2345,14 +2372,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2361,31 +2388,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2394,14 +2421,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2411,14 +2438,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2427,14 +2454,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2444,14 +2471,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2460,31 +2487,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2493,14 +2520,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2510,11 +2537,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2526,14 +2553,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2550,7 +2577,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2559,14 +2586,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2576,11 +2603,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2592,14 +2619,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2609,11 +2636,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2625,14 +2652,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,14 +2669,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2658,14 +2685,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2675,14 +2702,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2691,14 +2718,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2708,14 +2735,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2724,14 +2751,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,14 +2768,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2757,14 +2784,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2774,11 +2801,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2790,14 +2817,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2807,11 +2834,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>56</v>
@@ -2823,14 +2850,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2840,14 +2867,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2856,14 +2883,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2873,7 +2900,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2896,24 +2923,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2922,28 +2949,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2955,31 +2982,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2988,28 +3015,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3021,31 +3048,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3054,28 +3081,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3087,31 +3114,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3120,7 +3147,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3133,18 +3160,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3153,28 +3180,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3186,31 +3213,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3232,18 +3259,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3252,28 +3279,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3285,66 +3312,165 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>2754.9050000000002</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>198</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>199</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
-        <v>200</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>201</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>12</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>113</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>179</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>202</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>12</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>113</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>203</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>205</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>206</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>113</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>142</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>2903.105</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>207</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>208</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>209</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3668,10 +3794,25 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -632,7 +632,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 5:52 PM</t>
+    <t>Sunday, 22 June, 2025 6:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -263,6 +275,15 @@
     <t>27.7200</t>
   </si>
   <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>GINGER 30 TABS.</t>
   </si>
   <si>
@@ -485,6 +506,12 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>VITATRON 30 CAPS</t>
   </si>
   <si>
@@ -590,7 +617,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سرنجات دواء 5 سم</t>
@@ -629,10 +656,10 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>Sunday, 22 June, 2025 6:00 PM</t>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>Sunday, 22 June, 2025 6:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1679,11 +1706,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1695,14 +1722,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1712,7 +1739,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1752,7 +1779,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1768,7 +1795,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1778,11 +1805,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1794,14 +1821,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1811,14 +1838,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1827,14 +1854,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1844,14 +1871,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1860,14 +1887,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1877,14 +1904,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1893,14 +1920,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1917,7 +1944,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1926,14 +1953,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1943,14 +1970,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1966,7 +1993,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1976,14 +2003,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1992,14 +2019,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2009,11 +2036,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2025,7 +2052,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2042,14 +2069,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2058,14 +2085,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2075,11 +2102,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2091,7 +2118,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2108,14 +2135,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2124,14 +2151,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2141,11 +2168,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2157,14 +2184,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2174,14 +2201,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2190,14 +2217,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2207,14 +2234,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2223,14 +2250,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2240,11 +2267,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2256,14 +2283,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2273,11 +2300,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2289,31 +2316,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2329,7 +2356,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2346,7 +2373,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2362,21 +2389,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2388,14 +2415,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2405,14 +2432,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2421,14 +2448,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2438,14 +2465,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2454,14 +2481,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2471,14 +2498,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2487,28 +2514,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2537,14 +2564,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2553,31 +2580,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>138</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2586,14 +2613,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2603,11 +2630,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2619,14 +2646,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2636,14 +2663,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2652,14 +2679,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2669,14 +2696,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2692,7 +2719,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2702,11 +2729,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2718,14 +2745,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2735,14 +2762,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2751,14 +2778,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2768,11 +2795,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2784,14 +2811,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2801,14 +2828,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2817,14 +2844,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2834,14 +2861,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2850,14 +2877,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2867,14 +2894,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>161</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2890,7 +2917,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2900,14 +2927,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2916,14 +2943,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2933,14 +2960,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2949,14 +2976,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2966,14 +2993,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2982,14 +3009,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2999,7 +3026,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3022,24 +3049,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3048,28 +3075,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3081,20 +3108,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3102,10 +3129,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3114,28 +3141,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3147,31 +3174,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3180,28 +3207,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3213,31 +3240,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>141</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3246,7 +3273,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3259,18 +3286,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3279,28 +3306,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3312,31 +3339,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3358,18 +3385,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3378,28 +3405,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3411,66 +3438,165 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>143</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>2903.105</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>207</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>208</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
-        <v>209</v>
-      </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>210</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>12</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>120</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>188</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>211</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>12</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>120</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>212</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>214</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>215</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>120</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>149</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3029.3499999999999</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>216</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>217</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>218</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3809,10 +3935,25 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -659,7 +659,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 6:09 PM</t>
+    <t>Sunday, 22 June, 2025 6:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>101.0000</t>
   </si>
   <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
   </si>
   <si>
@@ -497,6 +506,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>VENTAL COMPOSITUM 200 DOSES SPRAY</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -659,7 +677,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 6:10 PM</t>
+    <t>Sunday, 22 June, 2025 6:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1861,7 +1879,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1878,7 +1896,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1894,7 +1912,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1911,7 +1929,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1927,7 +1945,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1944,7 +1962,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1960,7 +1978,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1970,14 +1988,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1986,14 +2004,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2003,14 +2021,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2019,14 +2037,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2059,7 +2077,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2073,10 +2091,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2085,14 +2103,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2102,14 +2120,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2125,7 +2143,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2142,7 +2160,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2158,7 +2176,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2175,7 +2193,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2191,7 +2209,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2208,7 +2226,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2224,7 +2242,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2241,7 +2259,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2257,7 +2275,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2290,7 +2308,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2307,7 +2325,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2323,7 +2341,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2333,14 +2351,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2349,14 +2367,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2366,14 +2384,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2395,15 +2413,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2415,20 +2433,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2439,7 +2457,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2455,7 +2473,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2472,7 +2490,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2498,11 +2516,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2514,14 +2532,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2531,14 +2549,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2547,14 +2565,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2564,14 +2582,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>136</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2580,31 +2598,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>139</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2626,18 +2644,18 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2646,14 +2664,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2663,14 +2681,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2679,14 +2697,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2696,14 +2714,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2712,14 +2730,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2729,11 +2747,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2745,14 +2763,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2762,14 +2780,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2785,7 +2803,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2795,14 +2813,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2811,14 +2829,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2828,11 +2846,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2844,14 +2862,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2861,11 +2879,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2877,14 +2895,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2894,14 +2912,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2917,7 +2935,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2934,7 +2952,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2950,7 +2968,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2960,14 +2978,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2976,14 +2994,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2993,14 +3011,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>170</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3016,7 +3034,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3026,11 +3044,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3042,14 +3060,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3059,14 +3077,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>60</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3075,14 +3093,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3092,14 +3110,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3108,14 +3126,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3125,14 +3143,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3141,28 +3159,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3174,31 +3192,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3214,21 +3232,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3240,31 +3258,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3273,31 +3291,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3306,31 +3324,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3352,18 +3370,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>148</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3379,24 +3397,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3405,31 +3423,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3438,31 +3456,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3471,28 +3489,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3504,28 +3522,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3537,66 +3555,132 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>217</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>12</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>123</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>218</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>220</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>221</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>123</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>152</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
         <v>66</v>
       </c>
-      <c t="s" r="Q75" s="12">
+      <c t="s" r="Q77" s="12">
         <v>60</v>
       </c>
     </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3029.3499999999999</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>216</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>217</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
-        <v>218</v>
-      </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>3137.3499999999999</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>222</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>223</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>224</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3950,10 +4034,20 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -188,6 +188,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DIACALDERM TOPICAL OINT. 20 GM</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -419,6 +428,15 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -662,6 +680,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>كريم فاتيكا 125 مل</t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -677,7 +698,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 6:16 PM</t>
+    <t>Sunday, 22 June, 2025 6:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1780,7 +1801,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1790,14 +1811,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1806,14 +1827,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1823,14 +1844,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1839,14 +1860,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1879,7 +1900,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1912,7 +1933,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1929,7 +1950,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1945,7 +1966,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1962,7 +1983,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1978,7 +1999,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1995,7 +2016,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2011,7 +2032,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2021,14 +2042,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2037,14 +2058,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2054,14 +2075,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2070,14 +2091,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2110,7 +2131,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2124,10 +2145,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2136,14 +2157,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2153,14 +2174,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2176,7 +2197,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2193,7 +2214,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2209,7 +2230,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2226,7 +2247,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2242,7 +2263,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2259,7 +2280,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2275,7 +2296,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2292,7 +2313,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2308,7 +2329,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2341,7 +2362,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2358,7 +2379,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2374,7 +2395,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2384,14 +2405,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2400,14 +2421,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2417,14 +2438,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2446,15 +2467,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2466,20 +2487,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2490,7 +2511,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2506,7 +2527,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2523,7 +2544,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2549,11 +2570,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2565,14 +2586,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2582,14 +2603,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2598,14 +2619,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2615,14 +2636,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2631,31 +2652,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2664,14 +2685,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2681,14 +2702,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2697,31 +2718,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2737,7 +2758,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2747,11 +2768,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2763,14 +2784,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2787,7 +2808,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2796,14 +2817,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2813,14 +2834,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2829,14 +2850,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2846,11 +2867,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2862,14 +2883,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2879,14 +2900,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2895,14 +2916,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2912,11 +2933,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2928,14 +2949,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2945,14 +2966,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2961,14 +2982,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2978,7 +2999,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3001,7 +3022,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3018,7 +3039,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3034,7 +3055,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3044,14 +3065,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3060,14 +3081,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3077,14 +3098,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>176</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3100,7 +3121,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3110,11 +3131,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3126,14 +3147,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3143,14 +3164,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>60</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3159,14 +3180,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3176,14 +3197,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3192,14 +3213,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3209,14 +3230,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3225,28 +3246,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3258,31 +3279,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3298,21 +3319,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3324,31 +3345,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3357,31 +3378,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3390,31 +3411,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3436,18 +3457,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>151</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3463,24 +3484,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3489,31 +3510,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3522,31 +3543,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3555,28 +3576,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3588,28 +3609,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3621,66 +3642,165 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>223</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>143</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>126</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
         <v>60</v>
       </c>
-    </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>3137.3499999999999</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>222</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>223</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>224</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>12</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>126</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>225</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>227</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>228</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>126</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>158</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>3392.3499999999999</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>229</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>230</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>231</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4044,10 +4164,25 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -698,7 +698,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 6:26 PM</t>
+    <t>Sunday, 22 June, 2025 6:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1933,7 +1933,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -3055,7 +3055,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -500,205 +500,7 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>STATUKAST 4MG ORAL GRANULES 10 SACHETS</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>VENTAL COMPOSITUM 200 DOSES SPRAY</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>VITATRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>-75.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8641:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>29.50</t>
-  </si>
-  <si>
-    <t>29.5000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>ايزيس بقدونس وكرفس</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>بيرسول حشرات طائره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>زيت جونسون صغير</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>71:0</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>قطن 50جم</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كريم فاتيكا 125 مل</t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>Sunday, 22 June, 2025 6:27 PM</t>
+    <t>Sunday, 22 June, 2025 6:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -711,12 +513,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
     <numFmt numFmtId="165" formatCode="#,##0.##;&quot;[&quot;#,##0.##&quot;]&quot;;0"/>
-    <numFmt numFmtId="166" formatCode="#.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,11 +553,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -885,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
@@ -923,19 +719,16 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -1933,7 +1726,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2910,897 +2703,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" ht="24.75" customHeight="1">
-      <c r="A55" s="7">
-        <v>49</v>
-      </c>
-      <c r="B55" s="7"/>
-      <c t="s" r="C55" s="8">
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="13">
         <v>163</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c t="s" r="H55" s="9">
-        <v>143</v>
-      </c>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c t="s" r="L55" s="10">
-        <v>13</v>
-      </c>
-      <c r="M55" s="10"/>
-      <c t="s" r="N55" s="8">
-        <v>18</v>
-      </c>
-      <c r="O55" s="8"/>
-      <c t="s" r="P55" s="11">
-        <v>19</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" ht="25.5" customHeight="1">
-      <c r="A56" s="7">
-        <v>50</v>
-      </c>
-      <c r="B56" s="7"/>
-      <c t="s" r="C56" s="8">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c t="s" r="G55" s="14">
         <v>164</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c t="s" r="H56" s="9">
-        <v>12</v>
-      </c>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c t="s" r="L56" s="10">
-        <v>13</v>
-      </c>
-      <c r="M56" s="10"/>
-      <c t="s" r="N56" s="8">
-        <v>130</v>
-      </c>
-      <c r="O56" s="8"/>
-      <c t="s" r="P56" s="11">
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="15"/>
+      <c t="s" r="K55" s="16">
         <v>165</v>
       </c>
-      <c t="s" r="Q56" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" ht="25.5" customHeight="1">
-      <c r="A57" s="7">
-        <v>51</v>
-      </c>
-      <c r="B57" s="7"/>
-      <c t="s" r="C57" s="8">
-        <v>166</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c t="s" r="H57" s="9">
-        <v>57</v>
-      </c>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c t="s" r="L57" s="10">
-        <v>13</v>
-      </c>
-      <c r="M57" s="10"/>
-      <c t="s" r="N57" s="8">
-        <v>138</v>
-      </c>
-      <c r="O57" s="8"/>
-      <c t="s" r="P57" s="11">
-        <v>167</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="A58" s="7">
-        <v>52</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c t="s" r="C58" s="8">
-        <v>168</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c t="s" r="H58" s="9">
-        <v>41</v>
-      </c>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c t="s" r="L58" s="10">
-        <v>13</v>
-      </c>
-      <c r="M58" s="10"/>
-      <c t="s" r="N58" s="8">
-        <v>169</v>
-      </c>
-      <c r="O58" s="8"/>
-      <c t="s" r="P58" s="11">
-        <v>170</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" ht="25.5" customHeight="1">
-      <c r="A59" s="7">
-        <v>53</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c t="s" r="C59" s="8">
-        <v>171</v>
-      </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c t="s" r="H59" s="9">
-        <v>16</v>
-      </c>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c t="s" r="L59" s="10">
-        <v>13</v>
-      </c>
-      <c r="M59" s="10"/>
-      <c t="s" r="N59" s="8">
-        <v>172</v>
-      </c>
-      <c r="O59" s="8"/>
-      <c t="s" r="P59" s="11">
-        <v>173</v>
-      </c>
-      <c t="s" r="Q59" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="A60" s="7">
-        <v>54</v>
-      </c>
-      <c r="B60" s="7"/>
-      <c t="s" r="C60" s="8">
-        <v>174</v>
-      </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c t="s" r="H60" s="9">
-        <v>143</v>
-      </c>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c t="s" r="L60" s="10">
-        <v>13</v>
-      </c>
-      <c r="M60" s="10"/>
-      <c t="s" r="N60" s="8">
-        <v>175</v>
-      </c>
-      <c r="O60" s="8"/>
-      <c t="s" r="P60" s="11">
-        <v>176</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" ht="25.5" customHeight="1">
-      <c r="A61" s="7">
-        <v>55</v>
-      </c>
-      <c r="B61" s="7"/>
-      <c t="s" r="C61" s="8">
-        <v>177</v>
-      </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c t="s" r="H61" s="9">
-        <v>89</v>
-      </c>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c t="s" r="L61" s="10">
-        <v>13</v>
-      </c>
-      <c r="M61" s="10"/>
-      <c t="s" r="N61" s="8">
-        <v>83</v>
-      </c>
-      <c r="O61" s="8"/>
-      <c t="s" r="P61" s="11">
-        <v>178</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="A62" s="7">
-        <v>56</v>
-      </c>
-      <c r="B62" s="7"/>
-      <c t="s" r="C62" s="8">
-        <v>179</v>
-      </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c t="s" r="H62" s="9">
-        <v>21</v>
-      </c>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c t="s" r="L62" s="10">
-        <v>13</v>
-      </c>
-      <c r="M62" s="10"/>
-      <c t="s" r="N62" s="8">
-        <v>180</v>
-      </c>
-      <c r="O62" s="8"/>
-      <c t="s" r="P62" s="11">
-        <v>181</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="63" ht="24.75" customHeight="1">
-      <c r="A63" s="7">
-        <v>57</v>
-      </c>
-      <c r="B63" s="7"/>
-      <c t="s" r="C63" s="8">
-        <v>183</v>
-      </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c t="s" r="H63" s="9">
-        <v>184</v>
-      </c>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c t="s" r="L63" s="10">
-        <v>13</v>
-      </c>
-      <c r="M63" s="10"/>
-      <c t="s" r="N63" s="8">
-        <v>185</v>
-      </c>
-      <c r="O63" s="8"/>
-      <c t="s" r="P63" s="11">
-        <v>186</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="A64" s="7">
-        <v>58</v>
-      </c>
-      <c r="B64" s="7"/>
-      <c t="s" r="C64" s="8">
-        <v>187</v>
-      </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c t="s" r="H64" s="9">
-        <v>188</v>
-      </c>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c t="s" r="L64" s="10">
-        <v>13</v>
-      </c>
-      <c r="M64" s="10"/>
-      <c t="s" r="N64" s="8">
-        <v>189</v>
-      </c>
-      <c r="O64" s="8"/>
-      <c t="s" r="P64" s="11">
-        <v>190</v>
-      </c>
-      <c t="s" r="Q64" s="12">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" ht="24.75" customHeight="1">
-      <c r="A65" s="7">
-        <v>59</v>
-      </c>
-      <c r="B65" s="7"/>
-      <c t="s" r="C65" s="8">
-        <v>191</v>
-      </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c t="s" r="H65" s="9">
-        <v>16</v>
-      </c>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c t="s" r="L65" s="10">
-        <v>13</v>
-      </c>
-      <c r="M65" s="10"/>
-      <c t="s" r="N65" s="8">
-        <v>192</v>
-      </c>
-      <c r="O65" s="8"/>
-      <c t="s" r="P65" s="11">
-        <v>193</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="A66" s="7">
-        <v>60</v>
-      </c>
-      <c r="B66" s="7"/>
-      <c t="s" r="C66" s="8">
-        <v>194</v>
-      </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c t="s" r="H66" s="9">
-        <v>57</v>
-      </c>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c t="s" r="L66" s="10">
-        <v>13</v>
-      </c>
-      <c r="M66" s="10"/>
-      <c t="s" r="N66" s="8">
-        <v>123</v>
-      </c>
-      <c r="O66" s="8"/>
-      <c t="s" r="P66" s="11">
-        <v>195</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="A67" s="7">
-        <v>61</v>
-      </c>
-      <c r="B67" s="7"/>
-      <c t="s" r="C67" s="8">
-        <v>196</v>
-      </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c t="s" r="H67" s="9">
-        <v>12</v>
-      </c>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c t="s" r="L67" s="10">
-        <v>126</v>
-      </c>
-      <c r="M67" s="10"/>
-      <c t="s" r="N67" s="8">
-        <v>197</v>
-      </c>
-      <c r="O67" s="8"/>
-      <c t="s" r="P67" s="11">
-        <v>65</v>
-      </c>
-      <c t="s" r="Q67" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="A68" s="7">
-        <v>62</v>
-      </c>
-      <c r="B68" s="7"/>
-      <c t="s" r="C68" s="8">
-        <v>198</v>
-      </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c t="s" r="H68" s="9">
-        <v>199</v>
-      </c>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c t="s" r="L68" s="10">
-        <v>126</v>
-      </c>
-      <c r="M68" s="10"/>
-      <c t="s" r="N68" s="8">
-        <v>200</v>
-      </c>
-      <c r="O68" s="8"/>
-      <c t="s" r="P68" s="11">
-        <v>201</v>
-      </c>
-      <c t="s" r="Q68" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="A69" s="7">
-        <v>63</v>
-      </c>
-      <c r="B69" s="7"/>
-      <c t="s" r="C69" s="8">
-        <v>202</v>
-      </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c t="s" r="H69" s="9">
-        <v>28</v>
-      </c>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c t="s" r="L69" s="10">
-        <v>126</v>
-      </c>
-      <c r="M69" s="10"/>
-      <c t="s" r="N69" s="8">
-        <v>130</v>
-      </c>
-      <c r="O69" s="8"/>
-      <c t="s" r="P69" s="11">
-        <v>165</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="A70" s="7">
-        <v>64</v>
-      </c>
-      <c r="B70" s="7"/>
-      <c t="s" r="C70" s="8">
-        <v>203</v>
-      </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c t="s" r="H70" s="9">
-        <v>157</v>
-      </c>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c t="s" r="L70" s="10">
-        <v>126</v>
-      </c>
-      <c r="M70" s="10"/>
-      <c t="s" r="N70" s="8">
-        <v>204</v>
-      </c>
-      <c r="O70" s="8"/>
-      <c t="s" r="P70" s="11">
-        <v>45</v>
-      </c>
-      <c t="s" r="Q70" s="12">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="71" ht="25.5" customHeight="1">
-      <c r="A71" s="7">
-        <v>65</v>
-      </c>
-      <c r="B71" s="7"/>
-      <c t="s" r="C71" s="8">
-        <v>205</v>
-      </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c t="s" r="H71" s="9">
-        <v>12</v>
-      </c>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c t="s" r="L71" s="10">
-        <v>126</v>
-      </c>
-      <c r="M71" s="10"/>
-      <c t="s" r="N71" s="8">
-        <v>206</v>
-      </c>
-      <c r="O71" s="8"/>
-      <c t="s" r="P71" s="11">
-        <v>201</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" ht="25.5" customHeight="1">
-      <c r="A72" s="7">
-        <v>66</v>
-      </c>
-      <c r="B72" s="7"/>
-      <c t="s" r="C72" s="8">
-        <v>207</v>
-      </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c t="s" r="H72" s="9">
-        <v>208</v>
-      </c>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c t="s" r="L72" s="10">
-        <v>126</v>
-      </c>
-      <c r="M72" s="10"/>
-      <c t="s" r="N72" s="8">
-        <v>209</v>
-      </c>
-      <c r="O72" s="8"/>
-      <c t="s" r="P72" s="11">
-        <v>210</v>
-      </c>
-      <c t="s" r="Q72" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" ht="24.75" customHeight="1">
-      <c r="A73" s="7">
-        <v>67</v>
-      </c>
-      <c r="B73" s="7"/>
-      <c t="s" r="C73" s="8">
-        <v>211</v>
-      </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c t="s" r="H73" s="9">
-        <v>12</v>
-      </c>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c t="s" r="L73" s="10">
-        <v>126</v>
-      </c>
-      <c r="M73" s="10"/>
-      <c t="s" r="N73" s="8">
-        <v>189</v>
-      </c>
-      <c r="O73" s="8"/>
-      <c t="s" r="P73" s="11">
-        <v>212</v>
-      </c>
-      <c t="s" r="Q73" s="12">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="A74" s="7">
-        <v>68</v>
-      </c>
-      <c r="B74" s="7"/>
-      <c t="s" r="C74" s="8">
-        <v>213</v>
-      </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c t="s" r="H74" s="9">
-        <v>12</v>
-      </c>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c t="s" r="L74" s="10">
-        <v>126</v>
-      </c>
-      <c r="M74" s="10"/>
-      <c t="s" r="N74" s="8">
-        <v>206</v>
-      </c>
-      <c r="O74" s="8"/>
-      <c t="s" r="P74" s="11">
-        <v>214</v>
-      </c>
-      <c t="s" r="Q74" s="12">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="75" ht="24.75" customHeight="1">
-      <c r="A75" s="7">
-        <v>69</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c t="s" r="C75" s="8">
-        <v>215</v>
-      </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c t="s" r="H75" s="9">
-        <v>216</v>
-      </c>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c t="s" r="L75" s="10">
-        <v>126</v>
-      </c>
-      <c r="M75" s="10"/>
-      <c t="s" r="N75" s="8">
-        <v>206</v>
-      </c>
-      <c r="O75" s="8"/>
-      <c t="s" r="P75" s="11">
-        <v>217</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="A76" s="7">
-        <v>70</v>
-      </c>
-      <c r="B76" s="7"/>
-      <c t="s" r="C76" s="8">
-        <v>218</v>
-      </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c t="s" r="H76" s="9">
-        <v>219</v>
-      </c>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c t="s" r="L76" s="10">
-        <v>126</v>
-      </c>
-      <c r="M76" s="10"/>
-      <c t="s" r="N76" s="8">
-        <v>220</v>
-      </c>
-      <c r="O76" s="8"/>
-      <c t="s" r="P76" s="11">
-        <v>221</v>
-      </c>
-      <c t="s" r="Q76" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" ht="25.5" customHeight="1">
-      <c r="A77" s="7">
-        <v>71</v>
-      </c>
-      <c r="B77" s="7"/>
-      <c t="s" r="C77" s="8">
-        <v>222</v>
-      </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c t="s" r="H77" s="9">
-        <v>12</v>
-      </c>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c t="s" r="L77" s="10">
-        <v>126</v>
-      </c>
-      <c r="M77" s="10"/>
-      <c t="s" r="N77" s="8">
-        <v>200</v>
-      </c>
-      <c r="O77" s="8"/>
-      <c t="s" r="P77" s="11">
-        <v>201</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="A78" s="7">
-        <v>72</v>
-      </c>
-      <c r="B78" s="7"/>
-      <c t="s" r="C78" s="8">
-        <v>223</v>
-      </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c t="s" r="H78" s="9">
-        <v>143</v>
-      </c>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c t="s" r="L78" s="10">
-        <v>126</v>
-      </c>
-      <c r="M78" s="10"/>
-      <c t="s" r="N78" s="8">
-        <v>60</v>
-      </c>
-      <c r="O78" s="8"/>
-      <c t="s" r="P78" s="11">
-        <v>61</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" ht="25.5" customHeight="1">
-      <c r="A79" s="7">
-        <v>73</v>
-      </c>
-      <c r="B79" s="7"/>
-      <c t="s" r="C79" s="8">
-        <v>224</v>
-      </c>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c t="s" r="H79" s="9">
-        <v>12</v>
-      </c>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c t="s" r="L79" s="10">
-        <v>126</v>
-      </c>
-      <c r="M79" s="10"/>
-      <c t="s" r="N79" s="8">
-        <v>225</v>
-      </c>
-      <c r="O79" s="8"/>
-      <c t="s" r="P79" s="11">
-        <v>226</v>
-      </c>
-      <c t="s" r="Q79" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" ht="24.75" customHeight="1">
-      <c r="A80" s="7">
-        <v>74</v>
-      </c>
-      <c r="B80" s="7"/>
-      <c t="s" r="C80" s="8">
-        <v>227</v>
-      </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c t="s" r="H80" s="9">
-        <v>228</v>
-      </c>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c t="s" r="L80" s="10">
-        <v>126</v>
-      </c>
-      <c r="M80" s="10"/>
-      <c t="s" r="N80" s="8">
-        <v>158</v>
-      </c>
-      <c r="O80" s="8"/>
-      <c t="s" r="P80" s="11">
-        <v>69</v>
-      </c>
-      <c t="s" r="Q80" s="12">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>3392.3499999999999</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>229</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>230</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
-        <v>231</v>
-      </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="251">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4049,140 +2978,9 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -317,6 +317,15 @@
     <t>55.4400</t>
   </si>
   <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -500,7 +509,205 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 6:29 PM</t>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>STATUKAST 4MG ORAL GRANULES 10 SACHETS</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>VENTOLIN EVOHALER 100MCG/ACTUATION INHALER</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>VITATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>-75.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8641:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>29.50</t>
+  </si>
+  <si>
+    <t>29.5000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>ايزيس بقدونس وكرفس</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>بيرسول حشرات طائره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>71:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم فاتيكا 125 مل</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>Sunday, 22 June, 2025 6:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -513,11 +720,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
     <numFmt numFmtId="165" formatCode="#,##0.##;&quot;[&quot;#,##0.##&quot;]&quot;;0"/>
+    <numFmt numFmtId="166" formatCode="#.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,6 +761,11 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -681,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
@@ -719,16 +932,19 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -2023,7 +2239,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2040,7 +2256,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2056,7 +2272,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2073,7 +2289,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2089,7 +2305,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2106,7 +2322,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2122,7 +2338,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2139,7 +2355,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2155,7 +2371,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2188,7 +2404,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2205,7 +2421,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2221,7 +2437,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2231,14 +2447,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2247,14 +2463,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2264,14 +2480,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2293,15 +2509,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2313,20 +2529,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2337,7 +2553,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2353,7 +2569,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2370,7 +2586,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2396,11 +2612,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2412,14 +2628,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2429,14 +2645,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2445,14 +2661,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2462,14 +2678,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2485,7 +2701,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2495,14 +2711,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2511,31 +2727,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>148</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2557,18 +2773,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2577,14 +2793,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2594,14 +2810,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2610,14 +2826,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2627,14 +2843,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2643,14 +2859,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2660,11 +2876,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2676,14 +2892,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2693,43 +2909,940 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>163</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>164</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>13</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>80</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="13">
-        <v>163</v>
-      </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c t="s" r="G55" s="14">
-        <v>164</v>
-      </c>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="15"/>
-      <c t="s" r="K55" s="16">
-        <v>165</v>
-      </c>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>166</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>146</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>13</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>18</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>167</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>12</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>13</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>133</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>169</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>57</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>13</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>141</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>171</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>41</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>13</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>172</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>174</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>16</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>13</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>175</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>177</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>146</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>13</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>178</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>180</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>89</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>13</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>83</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>182</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>21</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>13</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>183</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>186</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>187</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>13</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>188</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>190</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>191</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>13</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>192</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>194</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>16</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>13</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>195</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>197</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>57</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>13</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>126</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>199</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>12</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>129</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>200</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>201</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>202</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>129</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>203</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>205</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>28</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>129</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>133</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>206</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>160</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>129</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>207</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>208</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>12</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>129</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>209</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>210</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>211</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>129</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>212</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>214</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>12</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>129</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>192</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>216</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>12</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>129</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>209</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>218</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>219</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>129</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>209</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>221</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>222</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>129</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>223</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>225</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>12</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>129</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>203</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>226</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>146</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>129</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>60</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>227</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>12</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>129</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>228</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>230</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>231</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>129</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>161</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>3435.3499999999999</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>232</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>233</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>234</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="251">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2978,9 +4091,145 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -362,6 +362,15 @@
     <t>30.1950</t>
   </si>
   <si>
+    <t>KLACID 250MG 14 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>146.00</t>
+  </si>
+  <si>
+    <t>146.0000</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -437,6 +446,24 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>NEXICURE 10 MG SACHET</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -446,6 +473,15 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -455,9 +491,6 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>0:5</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -485,6 +518,18 @@
     <t>0:-2</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>28.2000</t>
+  </si>
+  <si>
     <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
   </si>
   <si>
@@ -551,6 +596,9 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>VISCERA 10MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -584,13 +632,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8641:0</t>
+    <t>8639:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
@@ -674,6 +722,9 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -698,16 +749,13 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>16:0</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 6:50 PM</t>
+    <t>Sunday, 22 June, 2025 6:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2404,7 +2452,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2421,7 +2469,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2437,7 +2485,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2454,7 +2502,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2470,7 +2518,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2480,14 +2528,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2496,14 +2544,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2513,14 +2561,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2542,15 +2590,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2562,20 +2610,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2586,7 +2634,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2602,7 +2650,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2619,7 +2667,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2645,11 +2693,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2661,14 +2709,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2678,14 +2726,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2694,14 +2742,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2711,14 +2759,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2734,17 +2782,17 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2767,24 +2815,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2793,14 +2841,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2810,11 +2858,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2833,7 +2881,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2850,7 +2898,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2859,14 +2907,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2876,14 +2924,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2892,31 +2940,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2942,14 +2990,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2958,14 +3006,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2975,14 +3023,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2991,14 +3039,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3008,14 +3056,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3024,14 +3072,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3041,11 +3089,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3057,14 +3105,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3074,14 +3122,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3090,14 +3138,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3107,14 +3155,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3123,14 +3171,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3140,14 +3188,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3156,14 +3204,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3173,14 +3221,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3189,14 +3237,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3206,14 +3254,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3229,7 +3277,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3239,11 +3287,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3255,14 +3303,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3272,14 +3320,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3288,14 +3336,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3305,14 +3353,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3321,14 +3369,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3338,14 +3386,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3354,31 +3402,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3387,31 +3435,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3420,31 +3468,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3460,24 +3508,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>63</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3486,31 +3534,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3519,31 +3567,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>57</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3552,7 +3600,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3565,18 +3613,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3585,31 +3633,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>211</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3618,28 +3666,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>28</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3651,20 +3699,20 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3672,10 +3720,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3684,7 +3732,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3697,18 +3745,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3724,21 +3772,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>60</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>61</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3750,7 +3798,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3763,18 +3811,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3783,66 +3831,297 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>234</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>235</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>132</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>225</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>237</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>175</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>132</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>136</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>238</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>239</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>132</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>240</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>242</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>12</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>132</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>219</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>243</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>158</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>132</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>60</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>244</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>12</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>132</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>245</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>246</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>247</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>132</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>176</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>69</v>
       </c>
-      <c t="s" r="Q81" s="12">
+      <c t="s" r="Q88" s="12">
         <v>63</v>
       </c>
     </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>3435.3499999999999</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>232</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>233</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>234</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>3835.5500000000002</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>248</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>249</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>250</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4226,10 +4505,45 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -416,6 +416,15 @@
     <t>83.0000</t>
   </si>
   <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -426,12 +435,6 @@
   </si>
   <si>
     <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
   </si>
   <si>
     <t>NACTALIA 1 MILK 400 GM</t>
@@ -2650,7 +2653,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2667,7 +2670,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2683,7 +2686,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2700,7 +2703,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2726,11 +2729,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2742,14 +2745,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2759,14 +2762,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2775,31 +2778,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2808,31 +2811,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2841,7 +2844,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2858,11 +2861,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2874,14 +2877,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2891,11 +2894,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2907,14 +2910,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2924,14 +2927,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2940,31 +2943,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2973,31 +2976,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3006,14 +3009,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3023,14 +3026,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3039,14 +3042,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3056,14 +3059,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>89</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3072,14 +3075,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3089,14 +3092,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3112,7 +3115,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3122,11 +3125,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>98</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3138,14 +3141,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3155,14 +3158,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3171,14 +3174,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3188,14 +3191,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3211,7 +3214,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3221,11 +3224,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3237,14 +3240,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3254,11 +3257,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3270,14 +3273,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3287,14 +3290,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3303,14 +3306,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3320,14 +3323,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3336,14 +3339,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3353,14 +3356,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3369,14 +3372,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3386,14 +3389,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3409,7 +3412,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3419,14 +3422,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3435,14 +3438,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3452,14 +3455,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>201</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3468,14 +3471,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3485,14 +3488,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3501,14 +3504,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3518,14 +3521,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3534,14 +3537,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3551,14 +3554,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3567,14 +3570,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3584,14 +3587,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3600,31 +3603,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3633,14 +3636,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3650,11 +3653,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3666,14 +3669,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3683,11 +3686,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3706,7 +3709,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3716,14 +3719,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3732,14 +3735,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3749,14 +3752,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3765,14 +3768,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3782,14 +3785,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3798,14 +3801,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3815,14 +3818,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3831,7 +3834,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3848,14 +3851,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>227</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3864,14 +3867,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3881,14 +3884,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3897,14 +3900,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3914,11 +3917,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3937,7 +3940,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3947,11 +3950,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3963,14 +3966,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3980,11 +3983,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4003,7 +4006,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4013,11 +4016,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4036,7 +4039,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4046,11 +4049,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>60</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4062,14 +4065,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4079,49 +4082,82 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>247</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>248</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>132</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>177</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
         <v>69</v>
       </c>
-      <c t="s" r="Q88" s="12">
+      <c t="s" r="Q89" s="12">
         <v>63</v>
       </c>
     </row>
-    <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>3835.5500000000002</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>248</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>3858.5500000000002</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
         <v>249</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
         <v>250</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>251</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4540,10 +4576,15 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -758,7 +758,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 6:59 PM</t>
+    <t>Sunday, 22 June, 2025 7:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -281,6 +281,18 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -539,9 +551,6 @@
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -593,9 +602,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
     <t>52.0000</t>
   </si>
   <si>
@@ -758,7 +764,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 7:04 PM</t>
+    <t>Sunday, 22 June, 2025 7:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2175,7 +2181,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2191,7 +2197,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2201,11 +2207,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2217,14 +2223,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2234,14 +2240,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2250,14 +2256,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2267,14 +2273,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2283,14 +2289,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2300,11 +2306,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2316,14 +2322,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2333,14 +2339,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2349,14 +2355,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2366,14 +2372,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2382,14 +2388,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2399,14 +2405,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2415,14 +2421,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2432,14 +2438,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2448,14 +2454,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2465,14 +2471,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2481,14 +2487,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2498,14 +2504,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2514,14 +2520,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2531,14 +2537,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2547,14 +2553,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2564,14 +2570,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2580,14 +2586,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2597,14 +2603,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2613,7 +2619,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2626,7 +2632,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2653,21 +2659,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2679,14 +2685,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2696,14 +2702,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2712,14 +2718,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2729,14 +2735,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2745,7 +2751,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2762,11 +2768,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2778,14 +2784,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2795,14 +2801,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2811,31 +2817,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2851,24 +2857,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2877,7 +2883,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2894,11 +2900,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2910,14 +2916,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2927,11 +2933,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2943,14 +2949,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2960,14 +2966,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2976,31 +2982,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3009,31 +3015,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3042,14 +3048,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3059,14 +3065,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3082,7 +3088,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3092,14 +3098,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>173</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>89</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3115,7 +3121,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3125,14 +3131,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3141,14 +3147,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3158,11 +3164,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3181,7 +3187,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3191,14 +3197,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3214,7 +3220,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3224,14 +3230,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3240,14 +3246,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3257,11 +3263,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3273,14 +3279,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3290,11 +3296,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3306,14 +3312,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3323,14 +3329,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3346,7 +3352,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3363,7 +3369,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3379,7 +3385,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3396,7 +3402,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3412,7 +3418,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3422,14 +3428,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3438,14 +3444,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3455,14 +3461,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3478,7 +3484,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3488,14 +3494,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>202</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3504,14 +3510,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3521,14 +3527,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3537,14 +3543,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3554,14 +3560,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3570,14 +3576,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3587,14 +3593,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3603,14 +3609,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3620,14 +3626,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3643,24 +3649,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3676,21 +3682,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3702,28 +3708,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>28</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3735,31 +3741,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>143</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3775,13 +3781,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3789,10 +3795,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3808,24 +3814,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3834,31 +3840,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3880,18 +3886,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>228</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3907,24 +3913,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3933,28 +3939,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3966,28 +3972,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3999,28 +4005,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4032,28 +4038,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>61</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4065,28 +4071,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>60</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4105,59 +4111,92 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>249</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>250</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>136</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>180</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
         <v>69</v>
       </c>
-      <c t="s" r="Q89" s="12">
+      <c t="s" r="Q90" s="12">
         <v>63</v>
       </c>
     </row>
-    <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>3858.5500000000002</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>249</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>250</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>3887.5500000000002</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
         <v>251</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>252</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>253</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4581,10 +4620,15 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -62,6 +62,36 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMRIZOLE 250MG 20 TAB</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>APPLE-LITE 30 TABLETS</t>
   </si>
   <si>
@@ -74,9 +104,6 @@
     <t>AUGRAM 1GM 14 TABS</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>152.00</t>
   </si>
   <si>
@@ -131,12 +158,21 @@
     <t>22:0</t>
   </si>
   <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -158,15 +194,21 @@
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>105.00</t>
   </si>
   <si>
     <t>105.0000</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -251,9 +293,6 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>51.4800</t>
   </si>
   <si>
@@ -284,276 +323,273 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GINGER 30 TABS.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>480.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 625MG 16 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>71.5000</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>91.50</t>
+  </si>
+  <si>
+    <t>30.1950</t>
+  </si>
+  <si>
+    <t>KLACID 250MG 14 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>146.00</t>
+  </si>
+  <si>
+    <t>146.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>L-CARNITINE PLUS 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>116.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>LUBRISTIRA 15ML EYE DROPS</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>NACTALIA 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>NEXICURE 10 MG SACHET</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>-75.2000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>28.2000</t>
+  </si>
+  <si>
+    <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
+  </si>
+  <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GINGER 30 TABS.</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>55.4400</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>480.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 625MG 16 TAB.</t>
-  </si>
-  <si>
-    <t>143.00</t>
-  </si>
-  <si>
-    <t>71.5000</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>INCONT L.A. 4MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>91.50</t>
-  </si>
-  <si>
-    <t>30.1950</t>
-  </si>
-  <si>
-    <t>KLACID 250MG 14 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>146.00</t>
-  </si>
-  <si>
-    <t>146.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>L-CARNITINE PLUS 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>116.00</t>
-  </si>
-  <si>
-    <t>116.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LOLAWEST 3GM 6 SACHETS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>LUBRISTIRA 15ML EYE DROPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>NACTALIA 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB 2.5 MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>NEXICURE 10 MG SACHET</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>-75.2000</t>
-  </si>
-  <si>
-    <t>0:-2</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:16</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>28.2000</t>
-  </si>
-  <si>
-    <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
-  </si>
-  <si>
-    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -602,9 +638,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
     <t>VISCERA 10MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -689,9 +722,6 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -713,15 +743,12 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>14.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
@@ -743,9 +770,6 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -764,7 +788,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 7:06 PM</t>
+    <t>Sunday, 22 June, 2025 7:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1438,7 +1462,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1448,14 +1472,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1464,31 +1488,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1497,14 +1521,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1514,11 +1538,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1530,14 +1554,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1547,14 +1571,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1563,14 +1587,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1580,11 +1604,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1596,14 +1620,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1613,14 +1637,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1629,14 +1653,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1646,11 +1670,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1662,14 +1686,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1679,14 +1703,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1695,14 +1719,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1712,11 +1736,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1728,14 +1752,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1745,14 +1769,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1761,14 +1785,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1778,14 +1802,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1794,14 +1818,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1811,14 +1835,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1827,14 +1851,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1844,14 +1868,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1860,14 +1884,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1877,11 +1901,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1893,14 +1917,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1917,7 +1941,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1950,7 +1974,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1966,7 +1990,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1976,14 +2000,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1999,7 +2023,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2032,7 +2056,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2042,14 +2066,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2058,14 +2082,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2075,14 +2099,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2091,14 +2115,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2108,14 +2132,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2124,14 +2148,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2141,14 +2165,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2164,7 +2188,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2174,14 +2198,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2190,14 +2214,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2207,14 +2231,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2223,14 +2247,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2240,14 +2264,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2256,14 +2280,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2273,14 +2297,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2296,7 +2320,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2313,7 +2337,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2329,7 +2353,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2339,14 +2363,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2355,14 +2379,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2372,14 +2396,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2388,14 +2412,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2405,14 +2429,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2428,7 +2452,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2445,7 +2469,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2461,7 +2485,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2478,7 +2502,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2511,7 +2535,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2527,7 +2551,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2544,7 +2568,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2593,7 +2617,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2603,14 +2627,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2619,14 +2643,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2636,11 +2660,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2652,7 +2676,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2665,7 +2689,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2676,7 +2700,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2692,7 +2716,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2725,7 +2749,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2735,14 +2759,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2751,14 +2775,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2768,11 +2792,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2784,28 +2808,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2817,14 +2841,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2834,14 +2858,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2850,31 +2874,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>153</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2883,7 +2907,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2900,11 +2924,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2916,7 +2940,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2933,7 +2957,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2956,7 +2980,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2970,10 +2994,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2982,31 +3006,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>164</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>153</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3022,24 +3046,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3048,14 +3072,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3065,11 +3089,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3088,7 +3112,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3105,7 +3129,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3114,14 +3138,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3131,14 +3155,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>89</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3147,31 +3171,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3187,7 +3211,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3197,11 +3221,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3213,14 +3237,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3230,14 +3254,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3246,14 +3270,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3263,14 +3287,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3286,7 +3310,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3296,14 +3320,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3312,14 +3336,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3329,11 +3353,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3345,14 +3369,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3362,14 +3386,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3378,14 +3402,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3395,14 +3419,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3411,14 +3435,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3428,14 +3452,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3461,11 +3485,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3477,14 +3501,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3494,14 +3518,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3510,14 +3534,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3527,14 +3551,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>204</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3550,7 +3574,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3560,14 +3584,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3576,14 +3600,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3593,14 +3617,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>163</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3609,14 +3633,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3626,11 +3650,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3642,14 +3666,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3659,14 +3683,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3675,31 +3699,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>65</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3708,31 +3732,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3741,31 +3765,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>28</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3774,31 +3798,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3814,24 +3838,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3847,21 +3871,21 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3873,31 +3897,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3913,24 +3937,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>230</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3939,31 +3963,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3972,31 +3996,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>143</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4005,28 +4029,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4038,7 +4062,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4051,7 +4075,7 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4059,10 +4083,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4071,31 +4095,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>60</v>
+        <v>238</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4104,28 +4128,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4144,59 +4168,224 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>3887.5500000000002</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>250</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
         <v>251</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>23</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
         <v>252</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>253</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>12</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>23</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>233</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>254</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>174</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>23</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>74</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>255</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>12</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>23</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>256</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>257</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>258</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>23</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>51</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>4003.1149999999998</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>259</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>260</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>261</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4625,10 +4814,35 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -119,6 +119,18 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -224,105 +236,105 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DIACALDERM TOPICAL OINT. 20 GM</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>101.0000</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DIACALDERM TOPICAL OINT. 20 GM</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>101.0000</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>E-YEAST 20 CAPS</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -722,6 +734,9 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -731,15 +746,24 @@
     <t>زيت جونسون صغير</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
     <t>65.0000</t>
   </si>
   <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -785,10 +809,10 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>Sunday, 22 June, 2025 7:15 PM</t>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 22 June, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1644,7 +1668,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1660,7 +1684,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1670,11 +1694,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1686,14 +1710,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1710,7 +1734,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1736,14 +1760,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1752,14 +1776,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1769,14 +1793,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1792,7 +1816,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1802,11 +1826,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1818,14 +1842,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1835,14 +1859,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1851,14 +1875,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1868,14 +1892,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1884,14 +1908,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1901,14 +1925,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1917,14 +1941,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1934,14 +1958,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1950,14 +1974,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2000,11 +2024,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -2016,14 +2040,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2033,14 +2057,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2049,14 +2073,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2073,7 +2097,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2106,7 +2130,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2122,7 +2146,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2132,7 +2156,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -2155,7 +2179,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2188,7 +2212,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2205,7 +2229,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2221,7 +2245,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2231,14 +2255,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2247,14 +2271,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2264,14 +2288,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2287,7 +2311,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2297,14 +2321,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2313,14 +2337,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2330,14 +2354,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>105</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>77</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2370,7 +2394,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2386,7 +2410,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2396,11 +2420,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2412,14 +2436,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2429,14 +2453,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2445,14 +2469,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2462,14 +2486,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2478,14 +2502,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2495,11 +2519,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2511,14 +2535,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2528,14 +2552,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>77</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2544,14 +2568,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2561,14 +2585,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2577,14 +2601,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2594,14 +2618,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2610,14 +2634,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2627,14 +2651,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2643,14 +2667,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2660,14 +2684,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2676,14 +2700,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2693,14 +2717,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2709,14 +2733,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2726,14 +2750,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2742,14 +2766,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2759,14 +2783,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2775,14 +2799,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2792,14 +2816,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2808,7 +2832,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2821,15 +2845,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2841,28 +2865,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2874,14 +2898,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2891,14 +2915,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2907,14 +2931,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2924,14 +2948,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2940,7 +2964,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2957,11 +2981,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2973,14 +2997,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2990,14 +3014,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3006,31 +3030,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>164</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3046,24 +3070,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3072,7 +3096,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3089,11 +3113,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3105,14 +3129,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3122,11 +3146,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3138,14 +3162,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3155,14 +3179,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3171,31 +3195,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3204,31 +3228,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3237,14 +3261,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3254,14 +3278,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3270,14 +3294,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3287,14 +3311,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3303,14 +3327,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3327,7 +3351,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>102</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3343,7 +3367,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3353,14 +3377,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3369,14 +3393,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3386,11 +3410,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3402,14 +3426,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3419,14 +3443,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3435,14 +3459,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3452,14 +3476,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3468,14 +3492,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3485,11 +3509,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3501,14 +3525,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3518,11 +3542,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3534,14 +3558,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3551,14 +3575,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3567,14 +3591,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3584,14 +3608,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3600,14 +3624,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3617,14 +3641,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3633,14 +3657,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3650,14 +3674,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3666,14 +3690,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3683,14 +3707,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3699,14 +3723,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3716,14 +3740,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>215</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3739,7 +3763,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3749,14 +3773,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>219</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3789,7 +3813,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>174</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3805,7 +3829,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3815,14 +3839,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3831,14 +3855,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3848,14 +3872,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3864,31 +3888,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3897,14 +3921,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3914,11 +3938,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3937,7 +3961,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>37</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3947,11 +3971,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3963,14 +3987,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3980,14 +4004,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3996,14 +4020,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4013,14 +4037,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>192</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4029,14 +4053,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4046,14 +4070,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4062,14 +4086,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4079,14 +4103,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4095,14 +4119,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4112,14 +4136,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>174</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4128,14 +4152,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4145,14 +4169,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4161,14 +4185,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4178,14 +4202,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4194,14 +4218,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4211,11 +4235,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4227,14 +4251,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4244,11 +4268,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4260,14 +4284,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4277,11 +4301,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4293,7 +4317,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4310,11 +4334,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4326,14 +4350,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>258</v>
+        <v>178</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4343,49 +4367,115 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>4003.1149999999998</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>263</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>12</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>23</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>264</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>265</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
         <v>259</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>260</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>261</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>23</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>55</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>4269.6750000000002</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>267</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>268</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>269</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4839,10 +4929,20 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -152,6 +152,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>30.50</t>
+  </si>
+  <si>
+    <t>30.5000</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -254,9 +266,6 @@
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -491,6 +500,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>MORNIGAG 10/10MG 30 DELAYED REL. F.C. TABS.</t>
+  </si>
+  <si>
+    <t>43.50</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -812,7 +830,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 7:28 PM</t>
+    <t>Sunday, 22 June, 2025 7:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1756,7 +1774,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1767,7 +1785,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1793,14 +1811,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1809,14 +1827,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1826,14 +1844,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1849,7 +1867,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1859,11 +1877,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1875,14 +1893,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1892,14 +1910,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1908,14 +1926,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1925,14 +1943,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1941,14 +1959,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1958,14 +1976,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1974,14 +1992,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1991,14 +2009,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2007,14 +2025,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2057,14 +2075,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2073,14 +2091,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2090,14 +2108,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2106,14 +2124,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2130,7 +2148,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2146,7 +2164,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2156,14 +2174,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2179,7 +2197,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2189,7 +2207,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2212,7 +2230,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2245,7 +2263,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2262,7 +2280,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2278,7 +2296,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2288,14 +2306,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2304,14 +2322,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2321,14 +2339,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2344,7 +2362,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2354,14 +2372,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2370,14 +2388,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2387,14 +2405,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2403,14 +2421,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2420,14 +2438,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2436,14 +2454,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2476,7 +2494,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2490,10 +2508,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2502,14 +2520,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2519,14 +2537,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2542,7 +2560,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2575,7 +2593,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2592,7 +2610,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2608,7 +2626,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2625,7 +2643,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2641,7 +2659,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2658,7 +2676,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2674,7 +2692,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2691,7 +2709,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2707,7 +2725,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2724,7 +2742,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2740,7 +2758,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2757,7 +2775,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2773,7 +2791,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2790,7 +2808,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2806,7 +2824,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2816,14 +2834,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2832,14 +2850,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2849,14 +2867,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2878,7 +2896,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2905,13 +2923,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2938,7 +2956,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2955,7 +2973,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2971,7 +2989,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2981,14 +2999,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2997,7 +3015,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3014,14 +3032,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3030,14 +3048,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3047,14 +3065,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3063,31 +3081,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3103,7 +3121,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3113,14 +3131,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3136,13 +3154,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3153,7 +3171,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3162,14 +3180,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3179,7 +3197,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3202,7 +3220,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3212,14 +3230,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3235,24 +3253,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3278,14 +3296,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3294,31 +3312,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3327,14 +3345,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3344,14 +3362,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3360,14 +3378,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3377,14 +3395,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>105</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3393,14 +3411,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3410,14 +3428,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3426,14 +3444,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3443,14 +3461,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3459,14 +3477,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3476,14 +3494,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3499,7 +3517,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3509,11 +3527,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3525,14 +3543,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3542,14 +3560,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3558,14 +3576,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3575,11 +3593,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3591,14 +3609,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3608,14 +3626,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3624,14 +3642,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3641,7 +3659,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3664,7 +3682,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3674,14 +3692,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3690,14 +3708,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3707,11 +3725,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3723,14 +3741,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3740,14 +3758,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3756,14 +3774,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3773,14 +3791,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>219</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3796,7 +3814,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3806,11 +3824,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>102</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3822,14 +3840,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3839,14 +3857,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>178</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3855,14 +3873,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3872,14 +3890,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3888,14 +3906,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3905,14 +3923,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3921,28 +3939,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>83</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3954,31 +3972,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3994,7 +4012,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4004,11 +4022,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4020,14 +4038,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>107</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4037,14 +4055,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>241</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4053,14 +4071,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4070,14 +4088,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4086,14 +4104,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>241</v>
+        <v>110</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4103,14 +4121,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>19</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4119,14 +4137,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4140,10 +4158,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>81</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4152,14 +4170,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4169,14 +4187,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4192,7 +4210,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4202,14 +4220,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>107</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4218,14 +4236,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4235,14 +4253,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4251,14 +4269,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4268,14 +4286,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4284,14 +4302,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4301,11 +4319,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4317,14 +4335,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4334,11 +4352,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4350,14 +4368,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4367,11 +4385,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4383,7 +4401,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4400,11 +4418,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4416,14 +4434,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4433,49 +4451,115 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>241</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>4269.6750000000002</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>267</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>268</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>269</v>
       </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>12</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>23</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>270</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>271</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>265</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>23</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>59</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>4328.8850000000002</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>273</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>274</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>275</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4939,10 +5023,20 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -830,7 +830,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 7:30 PM</t>
+    <t>Sunday, 22 June, 2025 7:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -62,12 +62,24 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMRIZOLE 250MG 20 TAB</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -155,9 +167,6 @@
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>30.50</t>
   </si>
   <si>
@@ -245,15 +254,21 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
     <t>4:2</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>DIACALDERM TOPICAL OINT. 20 GM</t>
   </si>
   <si>
@@ -506,9 +521,6 @@
     <t>43.50</t>
   </si>
   <si>
-    <t>28.7100</t>
-  </si>
-  <si>
     <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -785,7 +797,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14.0000</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -830,7 +842,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 7:44 PM</t>
+    <t>Sunday, 22 June, 2025 7:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1521,7 +1533,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1530,31 +1542,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1563,20 +1575,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1587,7 +1599,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1596,14 +1608,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1613,14 +1625,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1629,14 +1641,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1646,14 +1658,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1662,14 +1674,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1686,7 +1698,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1719,7 +1731,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1735,7 +1747,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1745,11 +1757,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1761,20 +1773,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1801,24 +1813,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1827,14 +1839,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1844,14 +1856,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1860,14 +1872,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1877,14 +1889,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1893,14 +1905,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1914,10 +1926,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1926,14 +1938,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1943,14 +1955,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1966,7 +1978,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1976,14 +1988,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1992,14 +2004,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2009,14 +2021,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2032,7 +2044,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2049,7 +2061,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2065,7 +2077,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2075,14 +2087,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2091,14 +2103,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2108,14 +2120,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2131,7 +2143,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2141,14 +2153,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2164,7 +2176,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2174,14 +2186,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2190,14 +2202,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2207,11 +2219,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2223,14 +2235,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2240,14 +2252,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2256,14 +2268,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2273,11 +2285,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2289,14 +2301,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2306,14 +2318,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2322,14 +2334,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2339,14 +2351,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2362,7 +2374,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2379,7 +2391,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2395,7 +2407,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2405,14 +2417,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2421,14 +2433,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2438,14 +2450,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2454,14 +2466,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2471,14 +2483,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2487,14 +2499,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2504,11 +2516,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2520,14 +2532,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2537,14 +2549,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2560,7 +2572,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2577,7 +2589,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2593,7 +2605,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2607,10 +2619,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2619,14 +2631,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2636,14 +2648,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2652,14 +2664,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2669,14 +2681,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2685,7 +2697,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2702,14 +2714,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2718,14 +2730,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2735,14 +2747,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2751,7 +2763,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2768,11 +2780,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2784,14 +2796,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2801,14 +2813,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2817,7 +2829,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2834,11 +2846,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2850,14 +2862,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2867,14 +2879,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2890,7 +2902,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2923,24 +2935,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2949,14 +2961,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2966,11 +2978,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2982,31 +2994,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3015,14 +3027,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3032,14 +3044,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3048,14 +3060,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3065,14 +3077,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3081,7 +3093,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3098,14 +3110,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3114,14 +3126,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3131,14 +3143,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3154,24 +3166,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3180,14 +3192,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3197,14 +3209,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3213,31 +3225,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3246,14 +3258,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3263,11 +3275,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3279,14 +3291,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3296,14 +3308,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3312,31 +3324,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3345,14 +3357,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3362,14 +3374,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3378,31 +3390,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3418,7 +3430,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3428,14 +3440,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3444,14 +3456,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3461,14 +3473,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3477,14 +3489,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3494,14 +3506,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3510,14 +3522,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3527,14 +3539,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3550,7 +3562,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3560,14 +3572,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3576,14 +3588,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3593,11 +3605,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3616,7 +3628,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3626,14 +3638,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3642,14 +3654,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3659,11 +3671,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3682,7 +3694,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3692,14 +3704,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3708,14 +3720,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3725,11 +3737,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3741,14 +3753,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3758,14 +3770,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3781,7 +3793,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3791,11 +3803,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3807,14 +3819,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3824,11 +3836,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3840,14 +3852,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3857,14 +3869,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>225</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3873,14 +3885,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3890,14 +3902,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3906,14 +3918,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3923,14 +3935,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>184</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3939,14 +3951,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3956,14 +3968,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3972,14 +3984,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3989,14 +4001,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4005,28 +4017,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>86</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4045,24 +4057,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>115</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4071,28 +4083,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>161</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4104,31 +4116,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>110</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4137,31 +4149,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4177,24 +4189,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>247</v>
+        <v>115</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>23</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4203,31 +4215,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>48</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4236,31 +4248,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4269,31 +4281,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>110</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4302,31 +4314,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q93" s="12">
         <v>262</v>
-      </c>
-      <c t="s" r="Q93" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4342,24 +4354,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>161</v>
+        <v>253</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4381,15 +4393,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4408,21 +4420,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4441,21 +4453,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>184</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>82</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4467,7 +4479,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4480,15 +4492,15 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4500,66 +4512,132 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>265</v>
+        <v>188</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>4328.8850000000002</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>273</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>12</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>27</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
         <v>274</v>
       </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>275</v>
       </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>269</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>27</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>62</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>4385.3549999999996</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>277</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>278</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>279</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5033,10 +5111,20 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -647,6 +647,15 @@
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
+    <t>STARVILLE WHITENING CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>STATUKAST 4MG ORAL GRANULES 10 SACHETS</t>
   </si>
   <si>
@@ -842,7 +851,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 7:48 PM</t>
+    <t>Sunday, 22 June, 2025 7:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3704,11 +3713,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3720,14 +3729,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3737,11 +3746,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3753,14 +3762,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3770,14 +3779,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3793,7 +3802,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3810,7 +3819,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3826,7 +3835,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3836,14 +3845,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>116</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3852,14 +3861,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3869,14 +3878,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3885,14 +3894,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3902,14 +3911,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3918,14 +3927,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3935,14 +3944,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>229</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3951,14 +3960,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3968,14 +3977,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3984,14 +3993,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4001,14 +4010,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>188</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4017,14 +4026,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4041,7 +4050,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4057,7 +4066,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4067,14 +4076,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4083,31 +4092,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4116,14 +4125,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4137,7 +4146,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4149,14 +4158,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4166,11 +4175,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4182,14 +4191,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4199,14 +4208,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4215,14 +4224,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4232,14 +4241,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>206</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4248,14 +4257,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4265,14 +4274,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4288,7 +4297,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4298,14 +4307,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4314,14 +4323,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4331,14 +4340,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>47</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>262</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4347,7 +4356,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4364,14 +4373,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>248</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>115</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4380,14 +4389,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4397,14 +4406,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4420,7 +4429,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4430,11 +4439,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4446,14 +4455,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4463,11 +4472,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>166</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4486,7 +4495,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4496,11 +4505,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4512,14 +4521,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4529,11 +4538,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>87</v>
+        <v>250</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4545,14 +4554,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4562,11 +4571,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>87</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4578,14 +4587,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4595,49 +4604,82 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>62</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>4385.3549999999996</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>277</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>278</v>
       </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>272</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>27</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>62</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>279</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c t="s" r="Q102" s="12">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>4515.3549999999996</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>280</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>281</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>282</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5121,10 +5163,15 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -257,18 +257,36 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>7:3</t>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
   </si>
   <si>
     <t>23.7600</t>
   </si>
   <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
     <t>DIACALDERM TOPICAL OINT. 20 GM</t>
   </si>
   <si>
@@ -347,18 +365,12 @@
     <t>108.00</t>
   </si>
   <si>
-    <t>35.6400</t>
-  </si>
-  <si>
     <t>0:4</t>
   </si>
   <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -512,9 +524,6 @@
     <t>50.00</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>MORNIGAG 10/10MG 30 DELAYED REL. F.C. TABS.</t>
   </si>
   <si>
@@ -530,6 +539,15 @@
     <t>240.0000</t>
   </si>
   <si>
+    <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>NEVILOB 2.5 MG 14 TAB.</t>
   </si>
   <si>
@@ -593,9 +611,6 @@
     <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
@@ -701,9 +716,6 @@
     <t>VITATRON 30 CAPS</t>
   </si>
   <si>
-    <t>150.00</t>
-  </si>
-  <si>
     <t>-75.0000</t>
   </si>
   <si>
@@ -806,7 +818,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>9:0</t>
+    <t>11:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -851,7 +863,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 7:49 PM</t>
+    <t>Sunday, 22 June, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2169,7 +2181,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2178,14 +2190,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2195,14 +2207,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2211,14 +2223,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2228,14 +2240,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2244,14 +2256,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2261,14 +2273,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2277,14 +2289,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2294,14 +2306,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2310,14 +2322,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2327,11 +2339,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2343,14 +2355,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2360,11 +2372,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2376,14 +2388,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2393,14 +2405,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2409,14 +2421,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2426,14 +2438,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2442,14 +2454,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2459,14 +2471,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2475,14 +2487,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2492,14 +2504,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2508,14 +2520,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2525,14 +2537,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2541,14 +2553,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2565,7 +2577,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2581,7 +2593,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2591,11 +2603,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2607,14 +2619,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2624,14 +2636,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2640,14 +2652,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2657,14 +2669,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2673,14 +2685,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2690,11 +2702,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2706,14 +2718,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2723,14 +2735,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2739,14 +2751,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2756,14 +2768,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2772,14 +2784,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2789,14 +2801,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2805,14 +2817,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2822,14 +2834,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2838,14 +2850,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2855,14 +2867,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2871,14 +2883,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2888,14 +2900,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2904,14 +2916,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2921,14 +2933,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2937,14 +2949,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2954,14 +2966,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2970,14 +2982,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2987,14 +2999,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3003,7 +3015,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3016,15 +3028,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3036,28 +3048,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3069,14 +3081,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3086,14 +3098,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3102,14 +3114,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3119,14 +3131,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3135,7 +3147,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3152,14 +3164,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3168,7 +3180,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3185,11 +3197,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3201,14 +3213,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3218,14 +3230,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3234,31 +3246,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>178</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3274,7 +3286,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3284,14 +3296,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3307,13 +3319,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3324,7 +3336,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3333,14 +3345,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3350,7 +3362,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3373,7 +3385,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3383,14 +3395,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3406,24 +3418,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3449,14 +3461,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3465,31 +3477,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3498,14 +3510,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3515,14 +3527,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3538,7 +3550,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3548,14 +3560,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>93</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>113</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3564,14 +3576,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3581,14 +3593,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3614,14 +3626,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3630,14 +3642,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3647,14 +3659,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3663,14 +3675,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3680,11 +3692,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3696,14 +3708,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3713,14 +3725,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3729,14 +3741,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3746,11 +3758,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3769,7 +3781,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3779,11 +3791,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3795,14 +3807,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3812,14 +3824,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3835,7 +3847,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3845,11 +3857,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3861,14 +3873,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3878,14 +3890,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3894,14 +3906,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3911,11 +3923,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3927,14 +3939,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3944,14 +3956,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3960,14 +3972,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3977,14 +3989,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>232</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3993,14 +4005,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>118</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4010,11 +4022,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4026,14 +4038,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4043,14 +4055,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>188</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4059,14 +4071,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4076,14 +4088,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4092,14 +4104,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>115</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4109,14 +4121,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4125,28 +4137,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4165,24 +4177,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>86</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4191,14 +4203,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4208,11 +4220,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>216</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4224,14 +4236,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>115</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4241,14 +4253,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>23</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>88</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>254</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4257,14 +4269,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4274,14 +4286,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>206</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4297,7 +4309,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>86</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4307,14 +4319,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>23</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4323,14 +4335,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4340,14 +4352,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4356,14 +4368,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4373,14 +4385,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>47</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>265</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4389,14 +4401,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4406,14 +4418,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>115</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4422,14 +4434,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4439,14 +4451,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q96" s="12">
         <v>269</v>
-      </c>
-      <c t="s" r="Q96" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4462,7 +4474,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4472,14 +4484,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>166</v>
+        <v>260</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4505,11 +4517,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>24</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4528,7 +4540,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4538,11 +4550,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4561,7 +4573,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4571,11 +4583,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>87</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4587,7 +4599,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4604,11 +4616,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4620,14 +4632,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4637,49 +4649,115 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>254</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>4515.3549999999996</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
         <v>280</v>
       </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>12</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>27</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
         <v>281</v>
       </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>282</v>
       </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>276</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>27</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>62</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>4634.2349999999997</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>284</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>285</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>286</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5168,10 +5246,20 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -548,6 +548,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>274.0000</t>
+  </si>
+  <si>
     <t>NEVILOB 2.5 MG 14 TAB.</t>
   </si>
   <si>
@@ -863,7 +872,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 8:18 PM</t>
+    <t>Sunday, 22 June, 2025 8:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3286,7 +3295,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3300,10 +3309,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3312,31 +3321,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>184</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3345,31 +3354,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3378,7 +3387,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3395,7 +3404,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3418,7 +3427,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3451,7 +3460,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3461,14 +3470,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>67</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>184</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3490,18 +3499,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3517,24 +3526,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3543,14 +3552,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3560,14 +3569,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3576,14 +3585,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3593,14 +3602,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3616,7 +3625,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>61</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3626,14 +3635,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>118</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3642,14 +3651,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3659,14 +3668,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3675,14 +3684,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3692,11 +3701,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3725,14 +3734,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3748,7 +3757,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3758,14 +3767,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3774,14 +3783,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3791,11 +3800,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>32</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3824,11 +3833,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3840,14 +3849,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3857,11 +3866,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3873,14 +3882,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3890,14 +3899,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3913,7 +3922,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3930,7 +3939,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3946,7 +3955,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3956,14 +3965,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3972,14 +3981,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3989,14 +3998,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4005,14 +4014,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4022,14 +4031,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4038,14 +4047,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4055,14 +4064,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>236</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4078,7 +4087,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4088,14 +4097,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4104,14 +4113,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4121,14 +4130,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>194</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4137,14 +4146,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4161,7 +4170,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4177,7 +4186,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4187,14 +4196,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4203,31 +4212,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>97</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4236,14 +4245,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4257,7 +4266,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4269,14 +4278,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4286,11 +4295,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4302,14 +4311,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4319,14 +4328,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>258</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4335,14 +4344,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4352,14 +4361,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>211</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4368,14 +4377,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4385,14 +4394,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4408,7 +4417,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4418,14 +4427,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4434,14 +4443,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4451,14 +4460,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>154</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>269</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4467,7 +4476,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4484,14 +4493,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>211</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4500,14 +4509,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4517,14 +4526,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4540,7 +4549,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>211</v>
+        <v>275</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4550,11 +4559,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>170</v>
+        <v>263</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4566,14 +4575,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4583,11 +4592,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>170</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4606,7 +4615,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4616,11 +4625,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>255</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4632,14 +4641,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4649,11 +4658,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>93</v>
+        <v>257</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>94</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4665,14 +4674,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4682,11 +4691,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>93</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4698,14 +4707,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4715,49 +4724,82 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>62</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>258</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>4634.2349999999997</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>284</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>285</v>
       </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>279</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>27</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>62</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
         <v>286</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c t="s" r="Q105" s="12">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>4908.2349999999997</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>287</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>288</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>289</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5256,10 +5298,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -686,6 +686,9 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -872,7 +875,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 8:19 PM</t>
+    <t>Sunday, 22 June, 2025 8:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3889,7 +3892,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3899,14 +3902,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3915,14 +3918,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3932,14 +3935,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3948,14 +3951,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3965,14 +3968,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3981,14 +3984,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>197</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3998,14 +4001,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4021,7 +4024,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4031,14 +4034,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4054,7 +4057,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4064,14 +4067,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4080,14 +4083,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4097,14 +4100,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>239</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4113,14 +4116,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4130,14 +4133,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4146,14 +4149,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4163,14 +4166,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>197</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4179,14 +4182,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4196,14 +4199,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4212,14 +4215,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4229,14 +4232,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4245,31 +4248,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>97</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4278,14 +4281,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4295,11 +4298,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4311,14 +4314,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4328,11 +4331,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4351,7 +4354,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4361,14 +4364,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>261</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4377,14 +4380,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4394,14 +4397,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>23</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>214</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4410,14 +4413,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4427,14 +4430,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4443,14 +4446,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4460,14 +4463,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4476,14 +4479,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4493,14 +4496,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>154</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>272</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4509,7 +4512,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4526,14 +4529,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>214</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4549,7 +4552,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4559,14 +4562,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4575,14 +4578,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4592,11 +4595,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4615,7 +4618,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>279</v>
+        <v>214</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4625,11 +4628,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4641,14 +4644,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4658,11 +4661,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>258</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4681,7 +4684,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4691,11 +4694,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>94</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4714,7 +4717,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4724,11 +4727,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>247</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4740,14 +4743,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4757,49 +4760,82 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>62</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
         <v>286</v>
       </c>
-      <c t="s" r="Q105" s="12">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>4908.2349999999997</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>280</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>27</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>62</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
         <v>287</v>
       </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
+      <c t="s" r="Q106" s="12">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>4936.2349999999997</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
         <v>288</v>
       </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
         <v>289</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>290</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5303,10 +5339,15 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -65,108 +65,111 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 250MG 20 TAB</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>APPLE-LITE 30 TABLETS</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>AUGRAM 1GM 14 TABS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>BAMBEDIL 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AMRIZOLE 250MG 20 TAB</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTODINE20    6 AMP</t>
-  </si>
-  <si>
-    <t>0:-2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>APPLE-LITE 30 TABLETS</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>AUGRAM 1GM 14 TABS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>BAMBEDIL 10MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>BETAFOS 1 AMP. 2ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
-  </si>
-  <si>
     <t>30.50</t>
   </si>
   <si>
@@ -797,9 +800,6 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -875,7 +875,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 8:22 PM</t>
+    <t>Sunday, 22 June, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1846,7 +1846,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1856,11 +1856,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1872,14 +1872,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1889,11 +1889,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1905,14 +1905,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1938,14 +1938,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1955,11 +1955,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1971,14 +1971,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2021,11 +2021,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2087,11 +2087,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2120,11 +2120,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2136,14 +2136,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2153,11 +2153,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2169,14 +2169,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2186,14 +2186,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2202,14 +2202,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2219,11 +2219,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2235,14 +2235,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2252,11 +2252,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>30</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2285,11 +2285,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2301,14 +2301,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2318,11 +2318,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2334,14 +2334,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2384,11 +2384,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2400,14 +2400,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2417,11 +2417,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>30</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2516,11 +2516,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2532,14 +2532,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2549,14 +2549,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2565,14 +2565,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2582,14 +2582,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2598,14 +2598,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2615,11 +2615,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2631,14 +2631,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2648,11 +2648,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2681,11 +2681,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2697,14 +2697,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2714,11 +2714,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2747,11 +2747,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2763,14 +2763,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2780,14 +2780,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2813,11 +2813,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2846,11 +2846,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2879,11 +2879,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2912,11 +2912,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2945,11 +2945,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2978,11 +2978,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2994,14 +2994,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3044,11 +3044,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3077,11 +3077,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3110,11 +3110,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3126,14 +3126,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3143,11 +3143,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3209,11 +3209,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3242,11 +3242,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3275,11 +3275,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3308,11 +3308,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3341,11 +3341,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3357,14 +3357,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3374,14 +3374,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3407,11 +3407,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3440,11 +3440,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3473,11 +3473,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3489,14 +3489,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3506,14 +3506,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3522,14 +3522,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3539,11 +3539,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3555,14 +3555,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3588,14 +3588,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3605,11 +3605,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>30</v>
@@ -3621,14 +3621,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3638,11 +3638,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>26</v>
@@ -3654,14 +3654,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3671,14 +3671,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3704,11 +3704,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3720,14 +3720,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3737,11 +3737,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3753,14 +3753,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3786,14 +3786,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3836,11 +3836,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3869,11 +3869,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3885,14 +3885,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3918,14 +3918,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3935,11 +3935,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3951,14 +3951,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3968,11 +3968,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4001,11 +4001,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4017,14 +4017,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4034,14 +4034,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4067,11 +4067,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4083,14 +4083,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4100,11 +4100,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4133,14 +4133,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4149,14 +4149,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4166,11 +4166,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4182,14 +4182,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4199,14 +4199,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4232,11 +4232,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4248,14 +4248,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4265,11 +4265,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4298,11 +4298,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4314,14 +4314,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4331,11 +4331,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4364,11 +4364,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4380,14 +4380,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4401,10 +4401,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>262</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4437,7 +4437,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4453,7 +4453,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4503,7 +4503,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4529,11 +4529,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>273</v>
@@ -4569,7 +4569,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4618,7 +4618,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4628,11 +4628,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4694,11 +4694,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4717,7 +4717,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4727,11 +4727,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4793,14 +4793,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>262</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -875,7 +875,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 8:32 PM</t>
+    <t>Sunday, 22 June, 2025 8:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -653,6 +653,15 @@
     <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
   </si>
   <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>5.5000</t>
+  </si>
+  <si>
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
@@ -689,9 +698,6 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
-  </si>
-  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -707,6 +713,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>TIRALEPSY 100MG/ML ORAL SOL. 120 ML</t>
+  </si>
+  <si>
+    <t>103.00</t>
+  </si>
+  <si>
+    <t>103.0000</t>
+  </si>
+  <si>
     <t>VENTOLIN EVOHALER 100MCG/ACTUATION INHALER</t>
   </si>
   <si>
@@ -875,7 +890,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 8:33 PM</t>
+    <t>Sunday, 22 June, 2025 8:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3727,7 +3742,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3737,14 +3752,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3770,14 +3785,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3793,7 +3808,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3803,14 +3818,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3819,14 +3834,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3836,11 +3851,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3869,11 +3884,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3885,14 +3900,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3902,14 +3917,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3918,7 +3933,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3939,7 +3954,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3951,7 +3966,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3968,11 +3983,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3984,14 +3999,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4001,11 +4016,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4017,14 +4032,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4034,14 +4049,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>121</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>122</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4050,14 +4065,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4067,14 +4082,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4083,14 +4098,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4100,14 +4115,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4116,14 +4131,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4133,14 +4148,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>241</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4149,14 +4164,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4166,14 +4181,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4182,14 +4197,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4199,14 +4214,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>198</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4215,14 +4230,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4232,14 +4247,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4248,14 +4263,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4265,14 +4280,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4281,31 +4296,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4314,14 +4329,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4331,11 +4346,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4347,14 +4362,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4364,11 +4379,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4380,14 +4395,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4397,14 +4412,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4413,14 +4428,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4430,14 +4445,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>23</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>215</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4446,14 +4461,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4463,14 +4478,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4479,14 +4494,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4496,14 +4511,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4512,14 +4527,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4529,14 +4544,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>273</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4545,7 +4560,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4562,14 +4577,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>215</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4578,14 +4593,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4595,14 +4610,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4611,14 +4626,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4628,11 +4643,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4644,14 +4659,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4661,11 +4676,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>171</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4677,14 +4692,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4694,11 +4709,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4710,14 +4725,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4727,11 +4742,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>94</v>
+        <v>264</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>95</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4743,14 +4758,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4760,11 +4775,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>249</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4776,14 +4791,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4793,49 +4808,82 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>63</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>291</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>285</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>27</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>63</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q107" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>4936.2349999999997</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>288</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
-        <v>289</v>
-      </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
-        <v>290</v>
-      </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>5022.7349999999997</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>293</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>294</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>295</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5344,10 +5392,15 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -86,6 +86,21 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
@@ -95,9 +110,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -266,9 +278,6 @@
     <t>35.6400</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
@@ -371,6 +380,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>139.50</t>
+  </si>
+  <si>
+    <t>46.0350</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -383,9 +401,6 @@
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>84.00</t>
   </si>
   <si>
@@ -449,9 +464,6 @@
     <t>39.00</t>
   </si>
   <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>INCONT L.A. 4MG 30 TAB.</t>
   </si>
   <si>
@@ -722,6 +734,12 @@
     <t>103.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>VENTOLIN EVOHALER 100MCG/ACTUATION INHALER</t>
   </si>
   <si>
@@ -845,7 +863,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -890,7 +908,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 8:34 PM</t>
+    <t>Sunday, 22 June, 2025 8:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1636,18 +1654,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1656,31 +1674,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1689,14 +1707,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1706,14 +1724,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1722,14 +1740,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1739,14 +1757,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1755,14 +1773,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1779,7 +1797,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1812,7 +1830,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1828,7 +1846,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1838,11 +1856,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1854,20 +1872,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1900,7 +1918,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1911,7 +1929,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1937,14 +1955,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1953,14 +1971,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1970,14 +1988,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1993,7 +2011,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2003,11 +2021,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -2019,14 +2037,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2036,14 +2054,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2052,14 +2070,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2069,14 +2087,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2085,14 +2103,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2102,14 +2120,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2118,14 +2136,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2135,14 +2153,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2151,14 +2169,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2201,14 +2219,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2234,14 +2252,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2250,14 +2268,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2267,14 +2285,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2290,7 +2308,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2300,14 +2318,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2323,7 +2341,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2340,7 +2358,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2356,7 +2374,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2366,14 +2384,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2389,7 +2407,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2399,7 +2417,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2422,7 +2440,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2455,7 +2473,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2472,7 +2490,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2488,7 +2506,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2498,14 +2516,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2514,14 +2532,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2531,14 +2549,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2554,7 +2572,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2564,14 +2582,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>119</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2580,14 +2598,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2601,10 +2619,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>122</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>52</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2620,7 +2638,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2630,11 +2648,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2646,14 +2664,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2663,14 +2681,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2679,14 +2697,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2696,14 +2714,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2719,7 +2737,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2752,7 +2770,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2766,10 +2784,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2778,14 +2796,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2795,14 +2813,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2811,7 +2829,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2828,11 +2846,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2844,14 +2862,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2861,14 +2879,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2877,14 +2895,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2894,11 +2912,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2910,7 +2928,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2927,11 +2945,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2943,14 +2961,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2960,11 +2978,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2976,7 +2994,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2993,11 +3011,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3009,14 +3027,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3026,11 +3044,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3042,14 +3060,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3059,11 +3077,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3075,31 +3093,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3108,14 +3126,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3125,11 +3143,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3141,31 +3159,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3174,14 +3192,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3191,14 +3209,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3214,7 +3232,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3224,14 +3242,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3240,7 +3258,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3257,14 +3275,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3273,14 +3291,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3290,14 +3308,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3306,7 +3324,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3323,11 +3341,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3339,14 +3357,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3356,11 +3374,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3372,31 +3390,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3405,14 +3423,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3422,14 +3440,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3438,31 +3456,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3471,14 +3489,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3488,11 +3506,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3504,14 +3522,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3521,14 +3539,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3537,31 +3555,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3570,14 +3588,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3587,14 +3605,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3610,24 +3628,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3636,14 +3654,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3653,14 +3671,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>46</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3669,14 +3687,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3686,14 +3704,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3702,14 +3720,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3719,14 +3737,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3735,14 +3753,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3759,7 +3777,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3775,7 +3793,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3785,11 +3803,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3801,14 +3819,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3818,14 +3836,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3834,14 +3852,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3851,11 +3869,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>33</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3874,7 +3892,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3884,14 +3902,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3907,7 +3925,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3917,11 +3935,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3933,14 +3951,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3950,7 +3968,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3973,7 +3991,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3983,14 +4001,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3999,14 +4017,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4016,11 +4034,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4032,14 +4050,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4049,14 +4067,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4065,14 +4083,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4082,14 +4100,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>121</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>122</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4105,7 +4123,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4115,11 +4133,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4131,14 +4149,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4148,14 +4166,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>114</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4164,14 +4182,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4181,14 +4199,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>246</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4204,7 +4222,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4214,14 +4232,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4230,14 +4248,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>122</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4247,14 +4265,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>117</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>198</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4263,14 +4281,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4280,14 +4298,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>182</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4296,14 +4314,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>87</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4313,11 +4331,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>162</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4329,31 +4347,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>98</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4362,28 +4380,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4395,31 +4413,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4428,31 +4446,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4468,24 +4486,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>47</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>218</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4494,28 +4512,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>175</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4534,24 +4552,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>90</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>23</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4560,7 +4578,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4573,18 +4591,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>278</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4593,31 +4611,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4626,31 +4644,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4666,24 +4684,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4692,31 +4710,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4725,28 +4743,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4758,28 +4776,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>95</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4791,28 +4809,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4824,66 +4842,165 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>63</v>
+        <v>270</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>294</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>202</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>32</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>97</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>295</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>12</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>32</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>296</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>297</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>291</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>32</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>67</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q110" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>5022.7349999999997</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>293</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>294</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
-        <v>295</v>
-      </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5144.7700000000004</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>299</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>300</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>301</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5397,10 +5514,25 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -716,6 +716,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -785,121 +794,121 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8639:0</t>
+    <t>8638:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>29.50</t>
+  </si>
+  <si>
+    <t>29.5000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>ايزيس بقدونس وكرفس</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>بيرسول حشرات طائره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>71:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم فاتيكا 125 مل</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
     <t>8.0000</t>
-  </si>
-  <si>
-    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>29.50</t>
-  </si>
-  <si>
-    <t>29.5000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>ايزيس بقدونس وكرفس</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>بيرسول حشرات طائره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>زيت جونسون صغير</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>سائل ريد</t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>200.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>71:0</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>شمع حريمي</t>
-  </si>
-  <si>
-    <t>قطن 50جم</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كريم فاتيكا 125 مل</t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -4057,7 +4066,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4074,7 +4083,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4090,7 +4099,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4107,7 +4116,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4123,7 +4132,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4133,11 +4142,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4149,14 +4158,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4166,11 +4175,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>53</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4189,7 +4198,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4199,14 +4208,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>127</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4215,14 +4224,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4232,14 +4241,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4248,14 +4257,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4265,14 +4274,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4281,14 +4290,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4298,14 +4307,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>252</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4321,7 +4330,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4331,14 +4340,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4347,14 +4356,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4364,14 +4373,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>202</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4380,14 +4389,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4401,10 +4410,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4413,14 +4422,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4430,14 +4439,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>166</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4453,24 +4462,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>166</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4486,7 +4495,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4496,11 +4505,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4512,14 +4521,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>49</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4529,11 +4538,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>175</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4545,14 +4554,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4562,14 +4571,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4578,14 +4587,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4595,14 +4604,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>23</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>222</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4618,7 +4627,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4632,10 +4641,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4644,14 +4653,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4661,14 +4670,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4677,14 +4686,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4694,14 +4703,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>284</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4727,14 +4736,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>103</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4743,14 +4752,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4760,14 +4769,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4776,14 +4785,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4793,11 +4802,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>175</v>
+        <v>277</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4809,14 +4818,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>291</v>
+        <v>222</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4826,11 +4835,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4842,14 +4851,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4859,11 +4868,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>271</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4875,14 +4884,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4892,11 +4901,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>97</v>
+        <v>272</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>98</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4908,14 +4917,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4925,11 +4934,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>97</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>260</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4948,7 +4957,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4958,49 +4967,82 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>67</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>300</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>293</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>32</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>67</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q111" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5144.7700000000004</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>299</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>300</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
-        <v>301</v>
-      </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>5241.7700000000004</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>302</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>303</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>304</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5529,10 +5571,15 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -917,7 +917,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 8:38 PM</t>
+    <t>Sunday, 22 June, 2025 8:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -449,6 +449,15 @@
     <t>480.0000</t>
   </si>
   <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 625MG 16 TAB.</t>
   </si>
   <si>
@@ -560,9 +569,6 @@
     <t>150.00</t>
   </si>
   <si>
-    <t>75.0000</t>
-  </si>
-  <si>
     <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -917,7 +923,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 8:39 PM</t>
+    <t>Sunday, 22 June, 2025 8:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2911,7 +2917,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2928,7 +2934,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2944,7 +2950,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2958,10 +2964,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2970,14 +2976,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2987,14 +2993,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3010,7 +3016,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3027,7 +3033,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3043,7 +3049,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3060,7 +3066,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3076,7 +3082,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3093,7 +3099,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3109,7 +3115,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3119,14 +3125,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3135,14 +3141,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3152,14 +3158,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3181,7 +3187,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3208,13 +3214,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3241,7 +3247,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3255,10 +3261,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3267,14 +3273,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3284,14 +3290,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3300,7 +3306,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3317,14 +3323,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3333,7 +3339,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3350,11 +3356,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3366,14 +3372,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3383,14 +3389,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3406,7 +3412,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3420,10 +3426,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3432,14 +3438,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3449,14 +3455,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3472,13 +3478,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3486,10 +3492,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>192</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3498,31 +3504,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>194</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3548,11 +3554,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3564,14 +3570,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3581,11 +3587,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3597,14 +3603,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3614,14 +3620,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>192</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3630,31 +3636,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3663,31 +3669,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3696,14 +3702,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3713,14 +3719,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3736,7 +3742,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3746,14 +3752,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3762,14 +3768,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3779,14 +3785,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>122</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3795,14 +3801,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3812,14 +3818,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3828,7 +3834,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3845,14 +3851,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3861,14 +3867,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3878,14 +3884,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3894,14 +3900,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3911,14 +3917,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3927,14 +3933,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3944,14 +3950,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>37</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3960,14 +3966,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3977,11 +3983,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3993,7 +3999,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4010,7 +4016,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4033,7 +4039,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4043,7 +4049,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4066,7 +4072,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4076,11 +4082,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4092,14 +4098,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4109,14 +4115,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4125,14 +4131,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4142,14 +4148,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4158,14 +4164,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4175,11 +4181,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>53</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>54</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4198,7 +4204,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4208,11 +4214,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>53</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4224,14 +4230,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4241,14 +4247,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4257,14 +4263,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4274,14 +4280,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4290,14 +4296,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4307,14 +4313,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4330,7 +4336,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4340,14 +4346,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>255</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4356,14 +4362,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4373,14 +4379,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4389,14 +4395,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4406,14 +4412,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4422,14 +4428,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4443,10 +4449,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4455,14 +4461,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4472,14 +4478,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>166</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4495,24 +4501,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4528,7 +4534,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4538,11 +4544,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4554,14 +4560,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>49</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4571,11 +4577,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4587,14 +4593,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4604,14 +4610,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>98</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4620,14 +4626,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4637,14 +4643,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>23</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>222</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4660,7 +4666,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4674,10 +4680,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4686,14 +4692,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>282</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4703,14 +4709,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4719,14 +4725,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4736,14 +4742,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>110</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>286</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4769,14 +4775,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>103</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4785,14 +4791,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>289</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4802,14 +4808,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4818,14 +4824,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4835,11 +4841,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>175</v>
+        <v>279</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4851,14 +4857,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>293</v>
+        <v>224</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4868,11 +4874,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>178</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4884,14 +4890,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4901,11 +4907,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>273</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4917,14 +4923,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4934,11 +4940,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>98</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4950,14 +4956,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4967,11 +4973,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>97</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -4983,14 +4989,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5000,49 +5006,82 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>67</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>302</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>295</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>32</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>67</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q112" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>5241.7700000000004</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>302</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>303</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>5316.7700000000004</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
         <v>304</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>305</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>306</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5576,10 +5615,15 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -923,7 +923,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 8:40 PM</t>
+    <t>Sunday, 22 June, 2025 8:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -923,7 +923,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 8:43 PM</t>
+    <t>Sunday, 22 June, 2025 8:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -923,7 +923,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 8:44 PM</t>
+    <t>Sunday, 22 June, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -77,6 +77,27 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALZENTAL 20MG/ML SUSP. 20ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>AMRIZOLE 250MG 20 TAB</t>
   </si>
   <si>
@@ -119,10 +140,13 @@
     <t>APPLE-LITE 30 TABLETS</t>
   </si>
   <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
+    <t>AQUA PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
   </si>
   <si>
     <t>AUGRAM 1GM 14 TABS</t>
@@ -170,12 +194,6 @@
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
   </si>
   <si>
@@ -365,9 +383,6 @@
     <t>90.00</t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -398,6 +413,12 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -419,9 +440,6 @@
     <t>GINGER 30 TABS.</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
     <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -623,9 +641,6 @@
     <t>ORS 10 SACHET</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
@@ -923,7 +938,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 8:49 PM</t>
+    <t>Sunday, 22 June, 2025 9:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1630,7 +1645,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1640,14 +1655,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1656,14 +1671,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1680,7 +1695,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1689,31 +1704,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1722,14 +1737,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1739,14 +1754,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1755,31 +1770,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1788,14 +1803,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1805,11 +1820,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1821,14 +1836,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1838,14 +1853,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1854,14 +1869,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1871,14 +1886,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1887,14 +1902,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1904,11 +1919,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1920,31 +1935,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1953,14 +1968,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1970,14 +1985,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1986,14 +2001,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2003,11 +2018,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2019,31 +2034,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2052,7 +2067,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2069,11 +2084,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -2085,14 +2100,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2102,11 +2117,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2118,14 +2133,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2135,11 +2150,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -2151,14 +2166,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2168,14 +2183,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2184,14 +2199,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2201,14 +2216,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2217,14 +2232,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2234,11 +2249,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2250,14 +2265,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2267,14 +2282,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2283,14 +2298,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2300,14 +2315,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2316,14 +2331,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2333,14 +2348,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2349,14 +2364,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2366,14 +2381,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2382,14 +2397,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2399,14 +2414,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2415,14 +2430,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2432,14 +2447,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2448,7 +2463,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2465,11 +2480,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2481,14 +2496,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2498,14 +2513,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2514,14 +2529,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2531,14 +2546,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2547,14 +2562,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2564,14 +2579,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2580,14 +2595,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2597,14 +2612,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2613,14 +2628,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2630,14 +2645,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>122</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2646,14 +2661,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2663,14 +2678,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2679,14 +2694,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2696,14 +2711,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2712,14 +2727,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2729,14 +2744,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2745,14 +2760,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2762,11 +2777,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2778,14 +2793,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2795,14 +2810,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2811,14 +2826,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2828,11 +2843,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2844,14 +2859,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2861,11 +2876,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2877,14 +2892,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2894,14 +2909,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2910,7 +2925,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2927,11 +2942,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2943,14 +2958,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2960,11 +2975,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2976,14 +2991,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2993,14 +3008,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3009,14 +3024,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3026,14 +3041,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3042,7 +3057,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3059,11 +3074,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3075,14 +3090,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3092,11 +3107,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3108,7 +3123,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3125,11 +3140,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3141,14 +3156,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3158,11 +3173,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3174,14 +3189,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3191,11 +3206,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3207,7 +3222,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3220,18 +3235,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3240,14 +3255,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3257,11 +3272,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3273,14 +3288,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3290,11 +3305,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3306,14 +3321,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3323,14 +3338,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3339,28 +3354,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3372,14 +3387,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3389,11 +3404,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3405,14 +3420,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3422,11 +3437,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3438,7 +3453,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3455,14 +3470,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3471,14 +3486,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3488,14 +3503,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3504,31 +3519,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>194</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3537,14 +3552,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3554,14 +3569,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3570,7 +3585,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3587,11 +3602,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3603,14 +3618,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3620,14 +3635,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3636,31 +3651,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3669,31 +3684,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3702,14 +3717,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3719,11 +3734,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3735,14 +3750,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3752,14 +3767,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3768,14 +3783,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3785,14 +3800,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>31</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3801,31 +3816,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>122</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3834,14 +3849,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3851,11 +3866,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3867,14 +3882,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3884,14 +3899,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3900,14 +3915,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>72</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3917,14 +3932,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3933,14 +3948,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3950,14 +3965,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3966,14 +3981,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3983,11 +3998,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3999,14 +4014,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4016,14 +4031,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4032,14 +4047,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4049,11 +4064,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4065,14 +4080,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4082,14 +4097,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4098,14 +4113,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4115,11 +4130,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4131,14 +4146,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4148,14 +4163,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4164,7 +4179,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4181,11 +4196,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4197,14 +4212,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>96</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4214,11 +4229,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>53</v>
+        <v>196</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>54</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4230,7 +4245,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4247,11 +4262,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4263,14 +4278,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4280,14 +4295,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4296,7 +4311,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4313,11 +4328,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4329,14 +4344,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>122</v>
+        <v>252</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4346,14 +4361,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4362,14 +4377,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4379,14 +4394,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>257</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4395,14 +4410,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>23</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4412,14 +4427,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>132</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4428,14 +4443,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4445,14 +4460,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4461,14 +4476,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4478,14 +4493,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>123</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4494,14 +4509,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4511,14 +4526,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4527,31 +4542,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4560,31 +4575,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4593,28 +4608,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4626,31 +4641,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>98</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4659,7 +4674,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4672,18 +4687,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>224</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4692,28 +4707,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4725,31 +4740,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>284</v>
+        <v>57</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>184</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4758,31 +4773,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>264</v>
+        <v>30</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>288</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4791,7 +4806,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4804,18 +4819,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>225</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>103</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4824,28 +4839,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4857,31 +4872,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>224</v>
+        <v>289</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>178</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4890,31 +4905,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4923,7 +4938,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4936,18 +4951,18 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4956,28 +4971,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>204</v>
+        <v>296</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>97</v>
+        <v>284</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>98</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -4989,28 +5004,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>184</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5022,66 +5037,198 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>302</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>12</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>39</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>279</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>303</v>
       </c>
-      <c t="s" r="Q112" s="12">
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>23</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>39</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>103</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>304</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>12</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>39</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>305</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>307</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>300</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>39</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>73</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q116" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>5316.7700000000004</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>304</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>305</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
-        <v>306</v>
-      </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>5423.7700000000004</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>309</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>310</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>311</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5620,10 +5767,30 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -653,6 +653,9 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>PERIOCARE MOUTH SPRAY</t>
+  </si>
+  <si>
     <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -779,6 +782,15 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -869,12 +881,6 @@
     <t>زيت جونسون صغير</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>سائل ريد</t>
   </si>
   <si>
@@ -938,7 +944,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 9:08 PM</t>
+    <t>Sunday, 22 June, 2025 9:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3856,21 +3862,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3889,7 +3895,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3899,14 +3905,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3915,14 +3921,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3932,14 +3938,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>103</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3948,14 +3954,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3965,14 +3971,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>127</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3981,14 +3987,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3998,14 +4004,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4031,14 +4037,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4047,14 +4053,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4064,14 +4070,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4080,14 +4086,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4097,14 +4103,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4113,14 +4119,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4130,14 +4136,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4153,7 +4159,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4163,11 +4169,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4179,7 +4185,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4196,11 +4202,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4212,14 +4218,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4229,11 +4235,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4245,14 +4251,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4262,11 +4268,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4278,14 +4284,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4295,14 +4301,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4311,14 +4317,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4328,14 +4334,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4344,14 +4350,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4361,11 +4367,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4377,14 +4383,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4394,11 +4400,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>27</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4410,14 +4416,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4427,14 +4433,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4460,11 +4466,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>182</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4476,14 +4482,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4493,14 +4499,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>259</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4509,14 +4515,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4526,14 +4532,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>261</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>262</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4542,14 +4548,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>264</v>
+        <v>127</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4559,11 +4565,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4575,14 +4581,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>268</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4592,14 +4598,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>96</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4608,14 +4614,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4625,14 +4631,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4641,14 +4647,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>96</v>
+        <v>272</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4658,14 +4664,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>175</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4674,28 +4680,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4714,24 +4720,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>175</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4740,14 +4746,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4757,11 +4763,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>184</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4773,14 +4779,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>96</v>
+        <v>282</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4790,14 +4796,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>30</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>104</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4806,14 +4812,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4823,14 +4829,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>284</v>
+        <v>184</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>229</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4839,14 +4845,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4856,14 +4862,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>30</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4872,14 +4878,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>289</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4889,14 +4895,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>62</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4905,14 +4911,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4922,14 +4928,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>116</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>293</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4938,14 +4944,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4955,14 +4961,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>109</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4971,14 +4977,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4988,14 +4994,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>295</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5004,14 +5010,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5021,14 +5027,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>184</v>
+        <v>288</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5037,14 +5043,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5054,11 +5060,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>31</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5070,14 +5076,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5087,11 +5093,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>279</v>
+        <v>184</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5103,14 +5109,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>23</v>
+        <v>302</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5120,11 +5126,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>103</v>
+        <v>303</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5153,11 +5159,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5169,14 +5175,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>300</v>
+        <v>23</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5186,49 +5192,115 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>306</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>12</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>39</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>307</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
         <v>308</v>
       </c>
-      <c t="s" r="Q116" s="12">
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>309</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>302</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>39</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>73</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q118" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>5423.7700000000004</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>309</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>310</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>5548.7700000000004</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
         <v>311</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>312</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>313</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5787,10 +5859,20 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -509,6 +509,12 @@
     <t>146.0000</t>
   </si>
   <si>
+    <t>LAMIFEN 125MG 14 TAB</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -944,7 +950,22 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 9:14 PM</t>
+    <t>معجون اسنان سيجنال 120 مل عرض</t>
+  </si>
+  <si>
+    <t>معجون سنسوداين 50 مل</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 22 June, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3235,7 +3256,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3245,14 +3266,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3261,14 +3282,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3278,14 +3299,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3294,14 +3315,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3311,14 +3332,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3334,7 +3355,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3344,14 +3365,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3360,7 +3381,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3373,15 +3394,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3393,28 +3414,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3426,14 +3447,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3443,14 +3464,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3466,7 +3487,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3480,10 +3501,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3509,14 +3530,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3525,7 +3546,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3542,11 +3563,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3565,7 +3586,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3575,14 +3596,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3598,7 +3619,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3612,10 +3633,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3624,14 +3645,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3641,14 +3662,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3664,13 +3685,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3678,10 +3699,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>200</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3690,31 +3711,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>202</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3740,11 +3761,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3756,14 +3777,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3773,11 +3794,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3789,14 +3810,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3806,14 +3827,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>200</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3829,24 +3850,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3855,14 +3876,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3872,14 +3893,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3888,28 +3909,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3921,14 +3942,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3938,14 +3959,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3961,7 +3982,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3971,14 +3992,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3987,14 +4008,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4004,14 +4025,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>127</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4020,14 +4041,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4037,14 +4058,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>44</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4053,7 +4074,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4070,14 +4091,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4086,14 +4107,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4103,14 +4124,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4119,14 +4140,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4136,14 +4157,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4152,14 +4173,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4169,14 +4190,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4185,14 +4206,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4202,11 +4223,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4218,7 +4239,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4235,7 +4256,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4258,7 +4279,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4268,7 +4289,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4291,7 +4312,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4301,11 +4322,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4317,14 +4338,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4334,14 +4355,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4350,14 +4371,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4367,14 +4388,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4383,14 +4404,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4400,11 +4421,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>28</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4423,7 +4444,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4433,11 +4454,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4449,14 +4470,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4466,11 +4487,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4482,14 +4503,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4499,14 +4520,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>132</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>133</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4515,14 +4536,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4532,14 +4553,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4548,14 +4569,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4565,14 +4586,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>263</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4588,7 +4609,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4598,14 +4619,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>266</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4614,14 +4635,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>268</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4631,14 +4652,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4647,14 +4668,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4664,14 +4685,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4680,14 +4701,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4701,10 +4722,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4713,14 +4734,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4730,14 +4751,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>175</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4753,24 +4774,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>177</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>107</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4786,7 +4807,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4796,11 +4817,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4812,14 +4833,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>57</v>
+        <v>284</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4829,11 +4850,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>184</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4845,14 +4866,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4862,14 +4883,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4878,14 +4899,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4895,14 +4916,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>30</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>230</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4918,7 +4939,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4928,14 +4949,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>259</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4944,14 +4965,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4961,14 +4982,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4977,14 +4998,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4994,14 +5015,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>116</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>295</v>
+        <v>62</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5027,14 +5048,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>109</v>
+        <v>297</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5043,14 +5064,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5060,14 +5081,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5076,14 +5097,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5093,11 +5114,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>184</v>
+        <v>290</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5109,14 +5130,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>302</v>
+        <v>232</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5126,11 +5147,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>303</v>
+        <v>186</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>31</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5142,14 +5163,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5159,11 +5180,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>284</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5175,14 +5196,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5192,11 +5213,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>103</v>
+        <v>285</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>104</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5208,14 +5229,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5225,11 +5246,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>308</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5241,14 +5262,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5258,49 +5279,148 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>73</v>
+        <v>309</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
         <v>310</v>
       </c>
       <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>311</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>304</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>39</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>73</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q119" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>5548.7700000000004</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>311</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>312</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>313</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>18</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>39</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>260</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>314</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>315</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>39</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>316</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>5771.7700000000004</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>318</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>319</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>320</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5869,10 +5989,25 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -290,624 +290,648 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DIACALDERM TOPICAL OINT. 20 GM</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
     <t>7:2</t>
   </si>
   <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>101.0000</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
     <t>35.6400</t>
   </si>
   <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DIACALDERM TOPICAL OINT. 20 GM</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>139.50</t>
+  </si>
+  <si>
+    <t>46.0350</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GINGER 30 TABS.</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>480.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 625MG 16 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>71.5000</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>91.50</t>
+  </si>
+  <si>
+    <t>30.1950</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>KLACID 250MG 14 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>146.00</t>
+  </si>
+  <si>
+    <t>146.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 125MG 14 TAB</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>L-CARNITINE PLUS 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>116.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>LUBRISTIRA 15ML EYE DROPS</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>MORNIGAG 10/10MG 30 DELAYED REL. F.C. TABS.</t>
+  </si>
+  <si>
+    <t>43.50</t>
+  </si>
+  <si>
+    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>NACTALIA 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>274.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>NEXICURE 10 MG SACHET</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PERIOCARE MOUTH SPRAY</t>
+  </si>
+  <si>
+    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>-75.2000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>28.2000</t>
+  </si>
+  <si>
+    <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
+  </si>
+  <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>5.5000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>STATUKAST 4MG ORAL GRANULES 10 SACHETS</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>TIRALEPSY 100MG/ML ORAL SOL. 120 ML</t>
+  </si>
+  <si>
+    <t>103.00</t>
+  </si>
+  <si>
+    <t>103.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>VENTOLIN EVOHALER 100MCG/ACTUATION INHALER</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>VISCERA 10MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>VITATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>-75.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8638:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>29.50</t>
+  </si>
+  <si>
+    <t>29.5000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>ايزيس بقدونس وكرفس</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>بيرسول حشرات طائره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>30.6600</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>101.0000</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>E-YEAST 20 CAPS</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>139.50</t>
-  </si>
-  <si>
-    <t>46.0350</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GINGER 30 TABS.</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>55.4400</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>480.0000</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 625MG 16 TAB.</t>
-  </si>
-  <si>
-    <t>143.00</t>
-  </si>
-  <si>
-    <t>71.5000</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>INCONT L.A. 4MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>91.50</t>
-  </si>
-  <si>
-    <t>30.1950</t>
-  </si>
-  <si>
-    <t>KLACID 250MG 14 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>146.00</t>
-  </si>
-  <si>
-    <t>146.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 125MG 14 TAB</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>L-CARNITINE PLUS 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>116.00</t>
-  </si>
-  <si>
-    <t>116.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LOLAWEST 3GM 6 SACHETS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>LUBRISTIRA 15ML EYE DROPS</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>MORNIGAG 10/10MG 30 DELAYED REL. F.C. TABS.</t>
-  </si>
-  <si>
-    <t>43.50</t>
-  </si>
-  <si>
-    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>NACTALIA 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>274.00</t>
-  </si>
-  <si>
-    <t>274.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB 2.5 MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>NEXICURE 10 MG SACHET</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PERIOCARE MOUTH SPRAY</t>
-  </si>
-  <si>
-    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
-  </si>
-  <si>
-    <t>9.6000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>-75.2000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:16</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>28.2000</t>
-  </si>
-  <si>
-    <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
-  </si>
-  <si>
-    <t>SILDEN 50 MG 4 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>5.5000</t>
-  </si>
-  <si>
-    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>STATUKAST 4MG ORAL GRANULES 10 SACHETS</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>TIRALEPSY 100MG/ML ORAL SOL. 120 ML</t>
-  </si>
-  <si>
-    <t>103.00</t>
-  </si>
-  <si>
-    <t>103.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>VENTOLIN EVOHALER 100MCG/ACTUATION INHALER</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>VISCERA 10MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>VITATRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>-75.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8638:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>29.50</t>
-  </si>
-  <si>
-    <t>29.5000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>ايزيس بقدونس وكرفس</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>بيرسول حشرات طائره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>زيت جونسون صغير</t>
-  </si>
-  <si>
-    <t>سائل ريد</t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>200.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
@@ -923,9 +947,6 @@
     <t>قطن 50جم</t>
   </si>
   <si>
-    <t>15:0</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -965,7 +986,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 9:18 PM</t>
+    <t>Sunday, 22 June, 2025 9:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2415,7 +2436,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2580,7 +2601,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2775,10 +2796,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2787,14 +2808,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2804,14 +2825,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2820,14 +2841,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2837,14 +2858,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2853,14 +2874,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2870,14 +2891,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2886,14 +2907,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2903,11 +2924,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2919,14 +2940,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2936,11 +2957,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2952,14 +2973,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2969,14 +2990,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2985,14 +3006,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3002,14 +3023,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3018,14 +3039,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3035,11 +3056,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3051,14 +3072,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3068,14 +3089,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3084,14 +3105,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3101,14 +3122,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3117,14 +3138,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3134,14 +3155,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3150,14 +3171,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3167,14 +3188,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3183,14 +3204,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3200,14 +3221,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3216,14 +3237,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3233,14 +3254,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3249,14 +3270,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3266,11 +3287,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3282,14 +3303,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3299,14 +3320,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3315,7 +3336,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3332,7 +3353,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3355,7 +3376,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3365,11 +3386,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3381,14 +3402,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3398,11 +3419,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3414,31 +3435,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3454,7 +3475,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3487,13 +3508,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3501,10 +3522,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3513,14 +3534,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3530,14 +3551,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3546,14 +3567,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3563,14 +3584,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3579,7 +3600,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3596,14 +3617,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3612,14 +3633,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3629,14 +3650,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3645,7 +3666,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3662,11 +3683,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3678,14 +3699,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3695,11 +3716,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3711,31 +3732,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3751,7 +3772,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3761,14 +3782,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3784,13 +3805,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3801,7 +3822,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3810,14 +3831,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3827,7 +3848,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3850,7 +3871,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3860,14 +3881,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>202</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3876,31 +3897,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3909,31 +3930,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3942,31 +3963,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3975,20 +3996,20 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3996,10 +4017,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4008,14 +4029,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4025,14 +4046,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4041,14 +4062,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4058,14 +4079,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>103</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>127</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4081,7 +4102,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4091,14 +4112,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4107,14 +4128,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4124,14 +4145,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4140,14 +4161,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4157,11 +4178,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4173,14 +4194,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4190,14 +4211,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4206,14 +4227,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4223,11 +4244,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4239,14 +4260,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4256,14 +4277,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>34</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4272,14 +4293,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4289,11 +4310,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4305,14 +4326,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4322,11 +4343,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4338,14 +4359,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4355,11 +4376,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4371,14 +4392,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,14 +4409,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4411,7 +4432,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4444,7 +4465,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>255</v>
+        <v>72</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4454,14 +4475,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4470,14 +4491,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4487,11 +4508,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4503,14 +4524,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4520,11 +4541,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4543,7 +4564,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4553,14 +4574,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>132</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>133</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4569,7 +4590,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4586,11 +4607,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>183</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4602,14 +4623,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4619,14 +4640,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>265</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4635,14 +4656,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,14 +4673,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>268</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4668,14 +4689,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>270</v>
+        <v>128</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4685,11 +4706,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>123</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4701,14 +4722,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4718,14 +4739,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>96</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4734,14 +4755,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4758,7 +4779,7 @@
         <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4774,7 +4795,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>96</v>
+        <v>280</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4784,14 +4805,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>177</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4800,28 +4821,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>107</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4833,31 +4854,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>284</v>
+        <v>96</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>183</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4873,7 +4894,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4883,11 +4904,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>186</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>242</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4899,14 +4920,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>96</v>
+        <v>290</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4916,14 +4937,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>30</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>104</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4932,14 +4953,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4949,14 +4970,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>192</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>59</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>232</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4965,14 +4986,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4982,14 +5003,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>261</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4998,14 +5019,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5015,14 +5036,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>295</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>62</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5031,14 +5052,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5048,14 +5069,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>116</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>297</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5071,7 +5092,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5081,14 +5102,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>109</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5097,14 +5118,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5114,14 +5135,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>304</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5130,14 +5151,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5147,14 +5168,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>186</v>
+        <v>296</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>306</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5163,14 +5184,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5180,11 +5201,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>31</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5196,14 +5217,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5213,11 +5234,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>285</v>
+        <v>192</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5229,14 +5250,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>23</v>
+        <v>304</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5246,11 +5267,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>103</v>
+        <v>312</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5262,7 +5283,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5279,11 +5300,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5295,14 +5316,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>304</v>
+        <v>23</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5312,14 +5333,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>312</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5328,14 +5349,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5345,11 +5366,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5361,14 +5382,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5378,49 +5399,115 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>316</v>
+        <v>73</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>5771.7700000000004</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>318</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>319</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>320</v>
       </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>18</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>39</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>266</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>321</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>322</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>39</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>323</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>5977.5100000000002</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>325</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>326</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>327</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6004,10 +6091,20 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -377,6 +377,12 @@
     <t>51.4800</t>
   </si>
   <si>
+    <t>EUTHYROX 100MCG 50 TAB.</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>E-YEAST 20 CAPS</t>
   </si>
   <si>
@@ -794,7 +800,7 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>VENTOLIN EVOHALER 100MCG/ACTUATION INHALER</t>
@@ -986,7 +992,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 9:21 PM</t>
+    <t>Sunday, 22 June, 2025 9:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2749,7 +2755,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2759,14 +2765,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2782,7 +2788,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2792,14 +2798,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2808,14 +2814,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2825,14 +2831,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2841,14 +2847,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2858,14 +2864,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2874,14 +2880,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2891,14 +2897,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2907,14 +2913,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2924,14 +2930,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2947,7 +2953,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2957,11 +2963,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2973,14 +2979,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2990,11 +2996,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -3006,14 +3012,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3023,14 +3029,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3039,14 +3045,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3056,14 +3062,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3072,14 +3078,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3089,11 +3095,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3105,14 +3111,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3122,14 +3128,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3138,14 +3144,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3155,14 +3161,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3171,14 +3177,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3188,14 +3194,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3204,14 +3210,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3221,14 +3227,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3244,7 +3250,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3258,10 +3264,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3270,14 +3276,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3287,14 +3293,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3310,7 +3316,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3324,7 +3330,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3336,7 +3342,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3353,7 +3359,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3376,7 +3382,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3386,14 +3392,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3402,14 +3408,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3419,14 +3425,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3435,14 +3441,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3452,14 +3458,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3475,7 +3481,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3485,14 +3491,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3501,7 +3507,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3514,15 +3520,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3534,28 +3540,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3567,14 +3573,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3584,14 +3590,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3607,7 +3613,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3621,10 +3627,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3650,14 +3656,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3666,7 +3672,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3683,11 +3689,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3706,7 +3712,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3716,14 +3722,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3739,7 +3745,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3753,10 +3759,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3765,14 +3771,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3782,14 +3788,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3805,13 +3811,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3819,10 +3825,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>208</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3831,31 +3837,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>210</v>
-      </c>
-      <c t="s" r="Q74" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3871,7 +3877,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3881,14 +3887,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3897,14 +3903,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3914,14 +3920,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3930,14 +3936,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3947,14 +3953,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>208</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3970,24 +3976,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3996,14 +4002,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4013,14 +4019,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4029,28 +4035,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4069,7 +4075,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4079,14 +4085,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4102,7 +4108,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4112,14 +4118,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>103</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4128,14 +4134,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>72</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4145,14 +4151,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>128</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4161,14 +4167,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4178,14 +4184,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>44</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4194,7 +4200,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4211,14 +4217,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4227,14 +4233,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4244,14 +4250,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4277,14 +4283,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4293,14 +4299,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4310,14 +4316,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4326,14 +4332,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4343,11 +4349,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4359,7 +4365,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4376,7 +4382,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4399,7 +4405,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4409,7 +4415,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4432,7 +4438,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4442,11 +4448,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4458,14 +4464,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4475,14 +4481,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4491,14 +4497,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4508,14 +4514,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4524,14 +4530,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4541,11 +4547,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>28</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4564,7 +4570,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4574,14 +4580,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>27</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4590,14 +4596,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4607,11 +4613,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4623,14 +4629,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4640,14 +4646,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>136</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>137</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4656,14 +4662,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4673,14 +4679,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4689,14 +4695,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4706,14 +4712,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4729,7 +4735,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4739,14 +4745,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>199</v>
+        <v>125</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>274</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4755,14 +4761,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>276</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4772,14 +4778,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>201</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4788,14 +4794,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4805,14 +4811,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4821,14 +4827,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4842,10 +4848,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4854,14 +4860,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4871,14 +4877,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4894,24 +4900,24 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>185</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>107</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4927,7 +4933,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4937,11 +4943,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4953,14 +4959,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>57</v>
+        <v>292</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4970,11 +4976,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>192</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4986,14 +4992,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5003,14 +5009,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>104</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5019,14 +5025,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5036,14 +5042,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>296</v>
+        <v>30</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>239</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5059,7 +5065,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5069,14 +5075,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>267</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5085,14 +5091,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>299</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5102,14 +5108,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5118,14 +5124,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5135,14 +5141,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>304</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5151,7 +5157,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5168,11 +5174,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>306</v>
@@ -5191,7 +5197,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5201,14 +5207,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>309</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>308</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5217,14 +5223,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>239</v>
+        <v>310</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5234,11 +5240,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5250,14 +5256,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5267,11 +5273,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>312</v>
+        <v>194</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5290,7 +5296,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5300,11 +5306,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>292</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5316,14 +5322,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5333,11 +5339,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>103</v>
+        <v>293</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>104</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5349,14 +5355,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5366,11 +5372,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>316</v>
+        <v>103</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>317</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5382,14 +5388,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5399,14 +5405,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>73</v>
+        <v>318</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
         <v>319</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5422,7 +5428,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>18</v>
+        <v>306</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5432,14 +5438,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>266</v>
+        <v>73</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5448,14 +5454,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>322</v>
+        <v>18</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5465,49 +5471,82 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>323</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
         <v>324</v>
       </c>
-      <c t="s" r="Q123" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>5977.5100000000002</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>39</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
         <v>325</v>
       </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
         <v>326</v>
       </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>6078.5100000000002</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
         <v>327</v>
       </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>328</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>329</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6101,10 +6140,15 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -89,6 +89,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>AMEBAZOL 1GM 2 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -164,9 +173,6 @@
     <t>81.00</t>
   </si>
   <si>
-    <t>81.0000</t>
-  </si>
-  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -257,6 +263,15 @@
     <t>16.0000</t>
   </si>
   <si>
+    <t>COLOSPASMIN FORTE 135MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>25.5000</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -266,6 +281,15 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -377,6 +401,12 @@
     <t>51.4800</t>
   </si>
   <si>
+    <t>EUCARBON 30 TAB</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>EUTHYROX 100MCG 50 TAB.</t>
   </si>
   <si>
@@ -395,12 +425,6 @@
     <t>0:11</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
     <t>0:4</t>
   </si>
   <si>
@@ -431,6 +455,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>FLUXOPRIDE 5MG 30 FAST DISSOLVING IN MOUTH TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
   </si>
   <si>
@@ -488,9 +521,6 @@
     <t>HEPAMARIN 140MG 30 CAPSULE</t>
   </si>
   <si>
-    <t>75.00</t>
-  </si>
-  <si>
     <t>75.0000</t>
   </si>
   <si>
@@ -563,6 +593,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>LILIOX 10 SACHET</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>LOLAWEST 3GM 6 SACHETS</t>
   </si>
   <si>
@@ -797,6 +836,15 @@
     <t>103.0000</t>
   </si>
   <si>
+    <t>TREATO-ULC 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -848,9 +896,6 @@
     <t>3:2</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>16.8300</t>
   </si>
   <si>
@@ -917,9 +962,6 @@
     <t>-1:0</t>
   </si>
   <si>
-    <t>100.00</t>
-  </si>
-  <si>
     <t>200.0000</t>
   </si>
   <si>
@@ -986,13 +1028,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>Sunday, 22 June, 2025 9:22 PM</t>
+    <t>Sunday, 22 June, 2025 9:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1749,7 +1785,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1765,7 +1801,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1782,7 +1818,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1798,7 +1834,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1808,14 +1844,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1824,31 +1860,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1857,31 +1893,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1890,7 +1926,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1907,11 +1943,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1930,7 +1966,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1947,7 +1983,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1963,7 +1999,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1980,7 +2016,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1996,7 +2032,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2006,14 +2042,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2022,14 +2058,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2039,14 +2075,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2055,14 +2091,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2072,11 +2108,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2088,28 +2124,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2121,31 +2157,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2154,14 +2190,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2171,14 +2207,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2204,14 +2240,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2220,14 +2256,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2237,11 +2273,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2260,7 +2296,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2274,10 +2310,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2286,14 +2322,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2303,14 +2339,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2326,7 +2362,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2336,14 +2372,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2352,14 +2388,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2369,11 +2405,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2385,14 +2421,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2402,14 +2438,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2418,14 +2454,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2435,11 +2471,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2451,14 +2487,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2468,14 +2504,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2484,14 +2520,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2501,14 +2537,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2517,14 +2553,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2534,14 +2570,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2550,14 +2586,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2567,14 +2603,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2583,14 +2619,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2600,14 +2636,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2616,7 +2652,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2633,11 +2669,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2649,14 +2685,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2666,14 +2702,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2682,14 +2718,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2699,14 +2735,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2715,14 +2751,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2732,14 +2768,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2755,7 +2791,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2765,11 +2801,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2781,7 +2817,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2798,11 +2834,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2814,14 +2850,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2831,14 +2867,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2847,14 +2883,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2864,14 +2900,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2880,14 +2916,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2897,14 +2933,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2913,14 +2949,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2930,14 +2966,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2946,14 +2982,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2963,14 +2999,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2979,14 +3015,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2996,14 +3032,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3012,14 +3048,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3029,11 +3065,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3045,14 +3081,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3062,14 +3098,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3078,14 +3114,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3095,11 +3131,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3111,14 +3147,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3128,11 +3164,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3144,14 +3180,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3161,14 +3197,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3177,14 +3213,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3194,14 +3230,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3210,14 +3246,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3227,14 +3263,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3243,14 +3279,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3260,14 +3296,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3276,14 +3312,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3293,11 +3329,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3309,14 +3345,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3326,14 +3362,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3342,7 +3378,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3359,11 +3395,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3375,14 +3411,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3392,14 +3428,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3408,14 +3444,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3425,14 +3461,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3441,14 +3477,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3458,14 +3494,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3474,14 +3510,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3491,14 +3527,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3507,14 +3543,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3524,11 +3560,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3540,28 +3576,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3573,14 +3609,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3590,14 +3626,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3606,14 +3642,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3623,14 +3659,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3639,14 +3675,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3656,14 +3692,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3672,7 +3708,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3685,15 +3721,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3705,14 +3741,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3722,7 +3758,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3745,13 +3781,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3759,10 +3795,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3771,14 +3807,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3788,11 +3824,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3804,14 +3840,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3821,11 +3857,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3837,31 +3873,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>210</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3870,7 +3906,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3887,11 +3923,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3903,14 +3939,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3920,14 +3956,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3936,7 +3972,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3953,14 +3989,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3969,14 +4005,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3986,14 +4022,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>210</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4002,28 +4038,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4035,31 +4071,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4068,14 +4104,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4085,11 +4121,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4101,14 +4137,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4118,14 +4154,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>103</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4141,7 +4177,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4158,7 +4194,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4174,7 +4210,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4184,14 +4220,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>130</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4200,31 +4236,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4246,18 +4282,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4266,14 +4302,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4283,11 +4319,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4299,14 +4335,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>243</v>
+        <v>137</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4316,14 +4352,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4332,14 +4368,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4349,14 +4385,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4365,14 +4401,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4389,7 +4425,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4405,7 +4441,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4415,11 +4451,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4431,14 +4467,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4448,14 +4484,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4471,7 +4507,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4481,11 +4517,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>75</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4497,14 +4533,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>72</v>
+        <v>256</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4514,14 +4550,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4530,14 +4566,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4547,11 +4583,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4563,14 +4599,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4580,14 +4616,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4596,14 +4632,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4613,11 +4649,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4629,14 +4665,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4646,11 +4682,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4662,14 +4698,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4679,14 +4715,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>138</v>
+        <v>267</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>139</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4695,14 +4731,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4712,14 +4748,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4735,7 +4771,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4745,14 +4781,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>125</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4761,14 +4797,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4778,14 +4814,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>276</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4794,14 +4830,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4811,14 +4847,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>30</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4827,14 +4863,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>282</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4844,14 +4880,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4860,14 +4896,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4877,11 +4913,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4893,14 +4929,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4910,14 +4946,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4926,7 +4962,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4939,15 +4975,15 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4959,31 +4995,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>292</v>
+        <v>138</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4992,31 +5028,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5025,31 +5061,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>96</v>
+        <v>294</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>104</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5058,20 +5094,20 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
@@ -5079,10 +5115,10 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>241</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5098,21 +5134,21 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5124,31 +5160,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>301</v>
+        <v>104</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>302</v>
+        <v>198</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5170,18 +5206,18 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>305</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>306</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5190,31 +5226,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>133</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>308</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5223,28 +5259,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>310</v>
+        <v>59</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>298</v>
+        <v>207</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5256,31 +5292,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>241</v>
+        <v>104</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5289,31 +5325,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>254</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5322,28 +5358,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5355,31 +5391,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>23</v>
+        <v>316</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>104</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5388,7 +5424,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5401,18 +5437,18 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
         <v>319</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>320</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5421,31 +5457,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>73</v>
+        <v>313</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>321</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>18</v>
+        <v>322</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5454,28 +5490,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>18</v>
+        <v>324</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5487,66 +5523,297 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>325</v>
+        <v>207</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>326</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>6078.5100000000002</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
         <v>327</v>
       </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>320</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>42</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
         <v>328</v>
       </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
         <v>329</v>
       </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>12</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>42</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>308</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>330</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>23</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>42</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>111</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>331</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>12</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>42</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>332</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>333</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>334</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>320</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>42</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>75</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>335</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>336</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>18</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>42</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>284</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>337</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>338</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>42</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>276</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>6460.0500000000002</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
+        <v>339</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>340</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>341</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6145,10 +6412,45 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-22_00-00.xlsx
+++ b/DaySale_2025-06-22_00-00.xlsx
@@ -263,6 +263,15 @@
     <t>16.0000</t>
   </si>
   <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>COLOSPASMIN FORTE 135MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -476,7 +485,7 @@
     <t>84.00</t>
   </si>
   <si>
-    <t>27.7200</t>
+    <t>55.4400</t>
   </si>
   <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
@@ -497,9 +506,6 @@
     <t>168.00</t>
   </si>
   <si>
-    <t>55.4400</t>
-  </si>
-  <si>
     <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -746,6 +752,12 @@
     <t>-75.2000</t>
   </si>
   <si>
+    <t>PURGATON 20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -1028,7 +1040,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 9:34 PM</t>
+    <t>Sunday, 22 June, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2395,7 +2407,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>64</v>
+        <v>16</v